--- a/Code/Results/Cases/Case_5_37/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_37/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,995 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.59408727451453</v>
+        <v>24.12841192569421</v>
       </c>
       <c r="C2">
-        <v>15.19803383117431</v>
+        <v>12.7238900742629</v>
       </c>
       <c r="D2">
-        <v>7.660567261639272</v>
+        <v>2.3674119684304</v>
       </c>
       <c r="E2">
-        <v>7.049216164497716</v>
+        <v>6.327089718391202</v>
       </c>
       <c r="F2">
-        <v>63.33007661573365</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>4.080468853276381</v>
+        <v>41.19865150058964</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.099239662164738</v>
+        <v>6.042807046561316</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.215620250710347</v>
       </c>
       <c r="M2">
-        <v>16.11183812268407</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>31.32977664926443</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.96551404633443</v>
+        <v>22.6700501822427</v>
       </c>
       <c r="C3">
-        <v>14.05060223666118</v>
+        <v>11.8722084589912</v>
       </c>
       <c r="D3">
-        <v>7.285926266971537</v>
+        <v>2.316656831303512</v>
       </c>
       <c r="E3">
-        <v>6.792537295104941</v>
+        <v>6.35875780808774</v>
       </c>
       <c r="F3">
-        <v>59.44987505291147</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>4.080468853276381</v>
+        <v>40.0589992101952</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.770358103613537</v>
+        <v>6.097613616416924</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.059101319050493</v>
       </c>
       <c r="M3">
-        <v>14.94216057935958</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>30.53732554163976</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.92382949881406</v>
+        <v>21.74402831878473</v>
       </c>
       <c r="C4">
-        <v>13.31795925010062</v>
+        <v>11.32267301153675</v>
       </c>
       <c r="D4">
-        <v>7.052792113269307</v>
+        <v>2.285940013937025</v>
       </c>
       <c r="E4">
-        <v>6.637476267935172</v>
+        <v>6.379680400630434</v>
       </c>
       <c r="F4">
-        <v>57.00830217700313</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>4.080468853276381</v>
+        <v>39.38436585608425</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.57001910206534</v>
+        <v>6.132559319770299</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.965592691318212</v>
       </c>
       <c r="M4">
-        <v>14.19355808841036</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>30.07193865351555</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.48847212441927</v>
+        <v>21.35922456323857</v>
       </c>
       <c r="C5">
-        <v>13.0120095713158</v>
+        <v>11.09196300426183</v>
       </c>
       <c r="D5">
-        <v>6.956983621073412</v>
+        <v>2.273511642886599</v>
       </c>
       <c r="E5">
-        <v>6.574931334533225</v>
+        <v>6.388574733591653</v>
       </c>
       <c r="F5">
-        <v>55.99843981015587</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>4.080468853276381</v>
+        <v>39.11577902076141</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.488769190989371</v>
+        <v>6.147128673028875</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.928160898289594</v>
       </c>
       <c r="M5">
-        <v>13.88056880159481</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>29.88756866657119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.41551543501928</v>
+        <v>21.29488766389143</v>
       </c>
       <c r="C6">
-        <v>12.96075164008111</v>
+        <v>11.05324275165387</v>
       </c>
       <c r="D6">
-        <v>6.941025817523487</v>
+        <v>2.271452649011549</v>
       </c>
       <c r="E6">
-        <v>6.564585032587901</v>
+        <v>6.390073774423842</v>
       </c>
       <c r="F6">
-        <v>55.82985687179587</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>4.080468853276381</v>
+        <v>39.07156329777558</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.475301207639511</v>
+        <v>6.149567848997674</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.921986709435693</v>
       </c>
       <c r="M6">
-        <v>13.82811075206533</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>29.85727157917939</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.91800255123546</v>
+        <v>21.73886846270306</v>
       </c>
       <c r="C7">
-        <v>13.31386343586539</v>
+        <v>11.31958908565766</v>
       </c>
       <c r="D7">
-        <v>7.051503279671388</v>
+        <v>2.285772069788022</v>
       </c>
       <c r="E7">
-        <v>6.636630143988051</v>
+        <v>6.379798866200699</v>
       </c>
       <c r="F7">
-        <v>56.99474301499671</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>4.080468853276381</v>
+        <v>39.38071794029836</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.568921762744463</v>
+        <v>6.132754472035426</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.965085116275602</v>
       </c>
       <c r="M7">
-        <v>14.18936945221982</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>30.06943086478945</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.04097996312252</v>
+        <v>23.63203800781505</v>
       </c>
       <c r="C8">
-        <v>14.80802975295758</v>
+        <v>12.43569842618858</v>
       </c>
       <c r="D8">
-        <v>7.532013434272382</v>
+        <v>2.349804037932369</v>
       </c>
       <c r="E8">
-        <v>6.960184732988985</v>
+        <v>6.33769982133969</v>
       </c>
       <c r="F8">
-        <v>62.00434700749516</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>4.080468853276381</v>
+        <v>40.80049320169433</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.985498037922856</v>
+        <v>6.061437713570764</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.161126332036545</v>
       </c>
       <c r="M8">
-        <v>15.7146679231687</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>31.05211440228148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.8925005622641</v>
+        <v>27.0953359355549</v>
       </c>
       <c r="C9">
-        <v>17.53167456387337</v>
+        <v>14.41762347853774</v>
       </c>
       <c r="D9">
-        <v>8.452099333076617</v>
+        <v>2.48009827612189</v>
       </c>
       <c r="E9">
-        <v>7.615465431280473</v>
+        <v>6.267054568145687</v>
       </c>
       <c r="F9">
-        <v>71.375618689776</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>4.080468853276381</v>
+        <v>43.78415492162927</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.816636243537026</v>
+        <v>5.931703133148451</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.565332721160982</v>
       </c>
       <c r="M9">
-        <v>18.47893387648414</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>33.14974298041254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.56483415375974</v>
+        <v>29.55728097095502</v>
       </c>
       <c r="C10">
-        <v>19.43439462388612</v>
+        <v>15.75461298462157</v>
       </c>
       <c r="D10">
-        <v>9.12024133646927</v>
+        <v>2.580573113180849</v>
       </c>
       <c r="E10">
-        <v>8.112100801049422</v>
+        <v>6.222707224460722</v>
       </c>
       <c r="F10">
-        <v>78.0307904755179</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>4.080468853276381</v>
+        <v>46.10064893821582</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.44015947741045</v>
+        <v>5.842336980301338</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>7.873546884389597</v>
       </c>
       <c r="M10">
-        <v>20.39541789827265</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>34.79981950559488</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.75561359173032</v>
+        <v>30.68635437472572</v>
       </c>
       <c r="C11">
-        <v>20.28637355337791</v>
+        <v>16.33878584764969</v>
       </c>
       <c r="D11">
-        <v>9.424531184944858</v>
+        <v>2.627801621200271</v>
       </c>
       <c r="E11">
-        <v>8.342483156551705</v>
+        <v>6.204253332035538</v>
       </c>
       <c r="F11">
-        <v>81.02592831877445</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>4.080468853276381</v>
+        <v>47.18308920882073</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.72826731198505</v>
+        <v>5.80292539714152</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>8.016139222416852</v>
       </c>
       <c r="M11">
-        <v>21.24911324308604</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>35.57584299030679</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.20392618283175</v>
+        <v>31.1079236421054</v>
       </c>
       <c r="C12">
-        <v>20.60785819522969</v>
+        <v>16.55671491103361</v>
       </c>
       <c r="D12">
-        <v>9.540047053104258</v>
+        <v>2.645952533018861</v>
       </c>
       <c r="E12">
-        <v>8.430513402912764</v>
+        <v>6.197520786338417</v>
       </c>
       <c r="F12">
-        <v>82.15752174598431</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>4.080468853276381</v>
+        <v>47.59732137817353</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.83821171605233</v>
+        <v>5.78817582831917</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>8.070481706694522</v>
       </c>
       <c r="M12">
-        <v>21.57047919912928</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>35.87355514228052</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.10747241236238</v>
+        <v>31.01739272776269</v>
       </c>
       <c r="C13">
-        <v>20.53865663343865</v>
+        <v>16.50992309989056</v>
       </c>
       <c r="D13">
-        <v>9.515151314637476</v>
+        <v>2.642030722335304</v>
       </c>
       <c r="E13">
-        <v>8.411516474797764</v>
+        <v>6.198959249828528</v>
       </c>
       <c r="F13">
-        <v>81.91388953006845</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>4.080468853276381</v>
+        <v>47.50791187665612</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.81449174227197</v>
+        <v>5.791344701170523</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>8.05876255532041</v>
       </c>
       <c r="M13">
-        <v>21.50133952939626</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>35.80926251562076</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.79254254307144</v>
+        <v>30.72115544073978</v>
       </c>
       <c r="C14">
-        <v>20.31283987778634</v>
+        <v>16.35677976886907</v>
       </c>
       <c r="D14">
-        <v>9.434027369182708</v>
+        <v>2.629289268607399</v>
       </c>
       <c r="E14">
-        <v>8.349708599662033</v>
+        <v>6.203694268118771</v>
       </c>
       <c r="F14">
-        <v>81.11906347217918</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>4.080468853276381</v>
+        <v>47.21707990393762</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.73729419148898</v>
+        <v>5.801708461068551</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>8.020603031052941</v>
       </c>
       <c r="M14">
-        <v>21.2755859701265</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>35.60025746045687</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.59933133716435</v>
+        <v>30.53893051322892</v>
       </c>
       <c r="C15">
-        <v>20.17439905667784</v>
+        <v>16.26255277690048</v>
       </c>
       <c r="D15">
-        <v>9.384382316734428</v>
+        <v>2.621520999740593</v>
       </c>
       <c r="E15">
-        <v>8.31195758878737</v>
+        <v>6.206628149487169</v>
       </c>
       <c r="F15">
-        <v>80.63194168664437</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>4.080468853276381</v>
+        <v>47.03950940530546</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.69012552121718</v>
+        <v>5.808079206329667</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>7.997274500929981</v>
       </c>
       <c r="M15">
-        <v>21.13707985534607</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>35.47274396966621</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.486591434235</v>
+        <v>29.48264040546385</v>
       </c>
       <c r="C16">
-        <v>19.37850804978773</v>
+        <v>15.71596647625539</v>
       </c>
       <c r="D16">
-        <v>9.100381129347594</v>
+        <v>2.577521162872521</v>
       </c>
       <c r="E16">
-        <v>8.097146029599745</v>
+        <v>6.223948512093017</v>
       </c>
       <c r="F16">
-        <v>77.83456287087604</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>4.080468853276381</v>
+        <v>46.03050197774876</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.42143663990969</v>
+        <v>5.844937280408128</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>7.864276178741905</v>
       </c>
       <c r="M16">
-        <v>20.33931847888308</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>34.74963105181208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.79821648097094</v>
+        <v>28.82368510145416</v>
       </c>
       <c r="C17">
-        <v>18.88730232697438</v>
+        <v>15.37461354126923</v>
       </c>
       <c r="D17">
-        <v>8.926393967753004</v>
+        <v>2.550950300010193</v>
       </c>
       <c r="E17">
-        <v>7.966598305276452</v>
+        <v>6.23501995521864</v>
       </c>
       <c r="F17">
-        <v>76.1114646940519</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>4.080468853276381</v>
+        <v>45.41897463112058</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.25787267677583</v>
+        <v>5.867863826762573</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>7.783296160548157</v>
       </c>
       <c r="M17">
-        <v>19.84572770062188</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>34.31265089962435</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.39987134056315</v>
+        <v>28.44638685916465</v>
       </c>
       <c r="C18">
-        <v>18.60343843794995</v>
+        <v>15.17600302951362</v>
       </c>
       <c r="D18">
-        <v>8.826336251360022</v>
+        <v>2.535807474847589</v>
       </c>
       <c r="E18">
-        <v>7.89191898639938</v>
+        <v>6.241549281540553</v>
       </c>
       <c r="F18">
-        <v>75.11718774239117</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>4.080468853276381</v>
+        <v>45.06991994782587</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.16419973602233</v>
+        <v>5.881167659489119</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>7.736942347161811</v>
       </c>
       <c r="M18">
-        <v>19.56007248088686</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>34.06368680237771</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.26455831323888</v>
+        <v>28.32540792960386</v>
       </c>
       <c r="C19">
-        <v>18.50707564346174</v>
+        <v>15.10836162178378</v>
       </c>
       <c r="D19">
-        <v>8.792454822831367</v>
+        <v>2.530703083003806</v>
       </c>
       <c r="E19">
-        <v>7.866700273219241</v>
+        <v>6.243787477498659</v>
       </c>
       <c r="F19">
-        <v>74.77994024408036</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>4.080468853276381</v>
+        <v>44.95219108487142</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.13254804107131</v>
+        <v>5.885692333225203</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>7.721286217609675</v>
       </c>
       <c r="M19">
-        <v>19.46303419533971</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>33.97979475591095</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.87173823568495</v>
+        <v>28.89425532713891</v>
       </c>
       <c r="C20">
-        <v>18.93972488364087</v>
+        <v>15.4111852568151</v>
       </c>
       <c r="D20">
-        <v>8.944912121891097</v>
+        <v>2.553763997532046</v>
       </c>
       <c r="E20">
-        <v>7.980452167027352</v>
+        <v>6.233824629293058</v>
       </c>
       <c r="F20">
-        <v>76.29520920892811</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>4.080468853276381</v>
+        <v>45.48379414000967</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.27524118753406</v>
+        <v>5.865411165658232</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>7.791893469735481</v>
       </c>
       <c r="M20">
-        <v>19.89844831505335</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>34.35892110874726</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.88510714155841</v>
+        <v>30.80832766107145</v>
       </c>
       <c r="C21">
-        <v>20.37919135355493</v>
+        <v>16.40184934233408</v>
       </c>
       <c r="D21">
-        <v>9.457845389899195</v>
+        <v>2.6330240950261</v>
       </c>
       <c r="E21">
-        <v>8.367840202681474</v>
+        <v>6.202296470925077</v>
       </c>
       <c r="F21">
-        <v>81.35257447074905</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>4.080468853276381</v>
+        <v>47.30238448953113</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.75994413217042</v>
+        <v>5.798659661619219</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>8.031801953931298</v>
       </c>
       <c r="M21">
-        <v>21.34194080518185</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>35.66154097434466</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.18636297818926</v>
+        <v>32.02454912790282</v>
       </c>
       <c r="C22">
-        <v>21.31382983518362</v>
+        <v>17.03025731882843</v>
       </c>
       <c r="D22">
-        <v>9.794918237884547</v>
+        <v>2.686405954368072</v>
       </c>
       <c r="E22">
-        <v>8.625731735119565</v>
+        <v>6.183185328282828</v>
       </c>
       <c r="F22">
-        <v>84.64410160063828</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>4.080468853276381</v>
+        <v>48.51637545537791</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.08179108672378</v>
+        <v>5.756050426026831</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.190619980703202</v>
       </c>
       <c r="M22">
-        <v>22.27465411693502</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>36.53545148210344</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.4928156689631</v>
+        <v>31.3785080234224</v>
       </c>
       <c r="C23">
-        <v>20.8152397141156</v>
+        <v>16.69654445085754</v>
       </c>
       <c r="D23">
-        <v>9.614750327448002</v>
+        <v>2.657752765444164</v>
       </c>
       <c r="E23">
-        <v>8.487595698887084</v>
+        <v>6.193245494294722</v>
       </c>
       <c r="F23">
-        <v>82.88777232683995</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>4.080468853276381</v>
+        <v>47.86602338755947</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.90946690954629</v>
+        <v>5.778700013789632</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>8.105667250723178</v>
       </c>
       <c r="M23">
-        <v>21.77755443532924</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>36.06688159122026</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.83850718539017</v>
+        <v>28.86236387270441</v>
       </c>
       <c r="C24">
-        <v>18.91602926205493</v>
+        <v>15.3946585544378</v>
       </c>
       <c r="D24">
-        <v>8.936540175433599</v>
+        <v>2.552491513749272</v>
       </c>
       <c r="E24">
-        <v>7.974187680698249</v>
+        <v>6.234364525279025</v>
       </c>
       <c r="F24">
-        <v>76.21214981351294</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>4.080468853276381</v>
+        <v>45.45448140417692</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.26738777014335</v>
+        <v>5.86651963016847</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>7.788005995058469</v>
       </c>
       <c r="M24">
-        <v>19.87461924187351</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>34.33799531682417</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.88089633622984</v>
+        <v>26.18569957170937</v>
       </c>
       <c r="C25">
-        <v>16.81438833555534</v>
+        <v>13.90293537243961</v>
       </c>
       <c r="D25">
-        <v>8.205109060115172</v>
+        <v>2.444165406762697</v>
       </c>
       <c r="E25">
-        <v>7.43580016043694</v>
+        <v>6.284863117532359</v>
       </c>
       <c r="F25">
-        <v>68.88537274499828</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>4.080468853276381</v>
+        <v>42.95549132557115</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.589946990472322</v>
+        <v>5.965738847442937</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.453967062739597</v>
       </c>
       <c r="M25">
-        <v>17.75318047399814</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>32.56359032749468</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_37/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_37/res_line/loading_percent.xlsx
@@ -421,40 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.12841192569421</v>
+        <v>16.77896362683131</v>
       </c>
       <c r="C2">
-        <v>12.7238900742629</v>
+        <v>9.726351861348485</v>
       </c>
       <c r="D2">
-        <v>2.3674119684304</v>
+        <v>3.93691220969227</v>
       </c>
       <c r="E2">
-        <v>6.327089718391202</v>
+        <v>9.358091969384725</v>
       </c>
       <c r="F2">
-        <v>41.19865150058964</v>
+        <v>39.30042919318905</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.042807046561316</v>
+        <v>6.819376659769376</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>14.73402994273744</v>
       </c>
       <c r="L2">
-        <v>7.215620250710347</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>16.30336988886645</v>
       </c>
       <c r="O2">
-        <v>31.32977664926443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.6700501822427</v>
+        <v>15.80788356694498</v>
       </c>
       <c r="C3">
-        <v>11.8722084589912</v>
+        <v>9.111480758399152</v>
       </c>
       <c r="D3">
-        <v>2.316656831303512</v>
+        <v>3.713299797450181</v>
       </c>
       <c r="E3">
-        <v>6.35875780808774</v>
+        <v>8.963484025018445</v>
       </c>
       <c r="F3">
-        <v>40.0589992101952</v>
+        <v>38.2072193719736</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.097613616416924</v>
+        <v>6.704983783586189</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>13.9538828489234</v>
       </c>
       <c r="L3">
-        <v>7.059101319050493</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>16.4173371700553</v>
       </c>
       <c r="O3">
-        <v>30.53732554163976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.74402831878473</v>
+        <v>15.19392061003244</v>
       </c>
       <c r="C4">
-        <v>11.32267301153675</v>
+        <v>8.720661963651514</v>
       </c>
       <c r="D4">
-        <v>2.285940013937025</v>
+        <v>3.587071889395665</v>
       </c>
       <c r="E4">
-        <v>6.379680400630434</v>
+        <v>8.719627149501781</v>
       </c>
       <c r="F4">
-        <v>39.38436585608425</v>
+        <v>37.55218136877036</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.132559319770299</v>
+        <v>6.638258868569151</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>13.46417401151492</v>
       </c>
       <c r="L4">
-        <v>6.965592691318212</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>16.49251717089284</v>
       </c>
       <c r="O4">
-        <v>30.07193865351555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.35922456323857</v>
+        <v>14.93949516611376</v>
       </c>
       <c r="C5">
-        <v>11.09196300426183</v>
+        <v>8.558148932608054</v>
       </c>
       <c r="D5">
-        <v>2.273511642886599</v>
+        <v>3.534876715092082</v>
       </c>
       <c r="E5">
-        <v>6.388574733591653</v>
+        <v>8.619985700370693</v>
       </c>
       <c r="F5">
-        <v>39.11577902076141</v>
+        <v>37.28945702782494</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.147128673028875</v>
+        <v>6.611946377079042</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>13.26214157908201</v>
       </c>
       <c r="L5">
-        <v>6.928160898289594</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>16.52441693783664</v>
       </c>
       <c r="O5">
-        <v>29.88756866657119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.29488766389143</v>
+        <v>14.89700023409503</v>
       </c>
       <c r="C6">
-        <v>11.05324275165387</v>
+        <v>8.530970711284679</v>
       </c>
       <c r="D6">
-        <v>2.271452649011549</v>
+        <v>3.526166264891514</v>
       </c>
       <c r="E6">
-        <v>6.390073774423842</v>
+        <v>8.603428153836528</v>
       </c>
       <c r="F6">
-        <v>39.07156329777558</v>
+        <v>37.24609015378525</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.149567848997674</v>
+        <v>6.607630106065282</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>13.22845221988942</v>
       </c>
       <c r="L6">
-        <v>6.921986709435693</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>16.52978893006022</v>
       </c>
       <c r="O6">
-        <v>29.85727157917939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.73886846270306</v>
+        <v>15.1905061285063</v>
       </c>
       <c r="C7">
-        <v>11.31958908565766</v>
+        <v>8.718483276045424</v>
       </c>
       <c r="D7">
-        <v>2.285772069788022</v>
+        <v>3.586370931773379</v>
       </c>
       <c r="E7">
-        <v>6.379798866200699</v>
+        <v>8.718284255283013</v>
       </c>
       <c r="F7">
-        <v>39.38071794029836</v>
+        <v>37.54862094985484</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.132754472035426</v>
+        <v>6.637900459264421</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>13.46145901890287</v>
       </c>
       <c r="L7">
-        <v>6.965085116275602</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>16.49294232381125</v>
       </c>
       <c r="O7">
-        <v>30.06943086478945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.63203800781505</v>
+        <v>16.44792844399088</v>
       </c>
       <c r="C8">
-        <v>12.43569842618858</v>
+        <v>9.517144811750484</v>
       </c>
       <c r="D8">
-        <v>2.349804037932369</v>
+        <v>3.853292083012697</v>
       </c>
       <c r="E8">
-        <v>6.33769982133969</v>
+        <v>9.222426281023006</v>
       </c>
       <c r="F8">
-        <v>40.80049320169433</v>
+        <v>38.92020721753344</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.061437713570764</v>
+        <v>6.779202129148818</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>14.46737081883613</v>
       </c>
       <c r="L8">
-        <v>7.161126332036545</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>16.3415572394361</v>
       </c>
       <c r="O8">
-        <v>31.05211440228148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.0953359355549</v>
+        <v>18.7662661738689</v>
       </c>
       <c r="C9">
-        <v>14.41762347853774</v>
+        <v>11.03805140621212</v>
       </c>
       <c r="D9">
-        <v>2.48009827612189</v>
+        <v>4.426263611794802</v>
       </c>
       <c r="E9">
-        <v>6.267054568145687</v>
+        <v>10.19404439171907</v>
       </c>
       <c r="F9">
-        <v>43.78415492162927</v>
+        <v>41.73326154612032</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.931703133148451</v>
+        <v>7.084395419418364</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>16.34796245841981</v>
       </c>
       <c r="L9">
-        <v>7.565332721160982</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>16.08825472333156</v>
       </c>
       <c r="O9">
-        <v>33.14974298041254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.55728097095502</v>
+        <v>20.44650147777462</v>
       </c>
       <c r="C10">
-        <v>15.75461298462157</v>
+        <v>12.12405839342004</v>
       </c>
       <c r="D10">
-        <v>2.580573113180849</v>
+        <v>4.809346535653149</v>
       </c>
       <c r="E10">
-        <v>6.222707224460722</v>
+        <v>10.8928406674906</v>
       </c>
       <c r="F10">
-        <v>46.10064893821582</v>
+        <v>43.87037036008849</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.842336980301338</v>
+        <v>7.326164156208119</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>17.84348433217219</v>
       </c>
       <c r="L10">
-        <v>7.873546884389597</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>15.93228188655411</v>
       </c>
       <c r="O10">
-        <v>34.79981950559488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.68635437472572</v>
+        <v>21.23265670664221</v>
       </c>
       <c r="C11">
-        <v>16.33878584764969</v>
+        <v>12.59933159414468</v>
       </c>
       <c r="D11">
-        <v>2.627801621200271</v>
+        <v>4.975639722726937</v>
       </c>
       <c r="E11">
-        <v>6.204253332035538</v>
+        <v>11.20689900124643</v>
       </c>
       <c r="F11">
-        <v>47.18308920882073</v>
+        <v>44.8575936712203</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.80292539714152</v>
+        <v>7.440093931020679</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>18.53815673072041</v>
       </c>
       <c r="L11">
-        <v>8.016139222416852</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>15.86879519167077</v>
       </c>
       <c r="O11">
-        <v>35.57584299030679</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.1079236421054</v>
+        <v>21.52593238221078</v>
       </c>
       <c r="C12">
-        <v>16.55671491103361</v>
+        <v>12.7767223462943</v>
       </c>
       <c r="D12">
-        <v>2.645952533018861</v>
+        <v>5.037487877756494</v>
       </c>
       <c r="E12">
-        <v>6.197520786338417</v>
+        <v>11.32525355335426</v>
       </c>
       <c r="F12">
-        <v>47.59732137817353</v>
+        <v>45.23362903286336</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.78817582831917</v>
+        <v>7.483819179797689</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>18.79714638762338</v>
       </c>
       <c r="L12">
-        <v>8.070481706694522</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>15.84591798131898</v>
       </c>
       <c r="O12">
-        <v>35.87355514228052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.01739272776269</v>
+        <v>21.46296437973667</v>
       </c>
       <c r="C13">
-        <v>16.50992309989056</v>
+        <v>12.73863108327886</v>
       </c>
       <c r="D13">
-        <v>2.642030722335304</v>
+        <v>5.024217336078431</v>
       </c>
       <c r="E13">
-        <v>6.198959249828528</v>
+        <v>11.29978937454697</v>
       </c>
       <c r="F13">
-        <v>47.50791187665612</v>
+        <v>45.15254431957709</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.791344701170523</v>
+        <v>7.47437596788731</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>18.74154653097555</v>
       </c>
       <c r="L13">
-        <v>8.05876255532041</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>15.85079167696713</v>
       </c>
       <c r="O13">
-        <v>35.80926251562076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.72115544073978</v>
+        <v>21.2568724105211</v>
       </c>
       <c r="C14">
-        <v>16.35677976886907</v>
+        <v>12.61397674472206</v>
       </c>
       <c r="D14">
-        <v>2.629289268607399</v>
+        <v>4.980750380150214</v>
       </c>
       <c r="E14">
-        <v>6.203694268118771</v>
+        <v>11.21664762775876</v>
       </c>
       <c r="F14">
-        <v>47.21707990393762</v>
+        <v>44.88848593908151</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.801708461068551</v>
+        <v>7.443679456445867</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>18.5595445181573</v>
       </c>
       <c r="L14">
-        <v>8.020603031052941</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>15.86688918747283</v>
       </c>
       <c r="O14">
-        <v>35.60025746045687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.53893051322892</v>
+        <v>21.13006374965981</v>
       </c>
       <c r="C15">
-        <v>16.26255277690048</v>
+        <v>12.5372893304011</v>
       </c>
       <c r="D15">
-        <v>2.621520999740593</v>
+        <v>4.953980044905398</v>
       </c>
       <c r="E15">
-        <v>6.206628149487169</v>
+        <v>11.16564604918585</v>
       </c>
       <c r="F15">
-        <v>47.03950940530546</v>
+        <v>44.72703038873851</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.808079206329667</v>
+        <v>7.424953341545335</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>18.44753829689457</v>
       </c>
       <c r="L15">
-        <v>7.997274500929981</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>15.87690381373825</v>
       </c>
       <c r="O15">
-        <v>35.47274396966621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.48264040546385</v>
+        <v>20.39449670515458</v>
       </c>
       <c r="C16">
-        <v>15.71596647625539</v>
+        <v>12.09262999026825</v>
       </c>
       <c r="D16">
-        <v>2.577521162872521</v>
+        <v>4.798320344168899</v>
       </c>
       <c r="E16">
-        <v>6.223948512093017</v>
+        <v>10.87223682802019</v>
       </c>
       <c r="F16">
-        <v>46.03050197774876</v>
+        <v>43.80615715873417</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.844937280408128</v>
+        <v>7.318799176889122</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>17.7975076209052</v>
       </c>
       <c r="L16">
-        <v>7.864276178741905</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>15.93658858446701</v>
       </c>
       <c r="O16">
-        <v>34.74963105181208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.82368510145416</v>
+        <v>19.93520494160457</v>
       </c>
       <c r="C17">
-        <v>15.37461354126923</v>
+        <v>11.81511695655676</v>
       </c>
       <c r="D17">
-        <v>2.550950300010193</v>
+        <v>4.700801460741353</v>
       </c>
       <c r="E17">
-        <v>6.23501995521864</v>
+        <v>10.69123708694738</v>
       </c>
       <c r="F17">
-        <v>45.41897463112058</v>
+        <v>43.24508937879065</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.867863826762573</v>
+        <v>7.254697266133496</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>17.39131493288684</v>
       </c>
       <c r="L17">
-        <v>7.783296160548157</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>15.97517620872777</v>
       </c>
       <c r="O17">
-        <v>34.31265089962435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.44638685916465</v>
+        <v>19.67486901199443</v>
       </c>
       <c r="C18">
-        <v>15.17600302951362</v>
+        <v>11.65372569599141</v>
       </c>
       <c r="D18">
-        <v>2.535807474847589</v>
+        <v>4.643959134777907</v>
       </c>
       <c r="E18">
-        <v>6.241549281540553</v>
+        <v>10.58677056684122</v>
       </c>
       <c r="F18">
-        <v>45.06991994782587</v>
+        <v>42.92378870416319</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.881167659489119</v>
+        <v>7.218198005539025</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>17.15490693999816</v>
       </c>
       <c r="L18">
-        <v>7.736942347161811</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>15.9980675022669</v>
       </c>
       <c r="O18">
-        <v>34.06368680237771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.32540792960386</v>
+        <v>19.59344076863071</v>
       </c>
       <c r="C19">
-        <v>15.10836162178378</v>
+        <v>11.59877368081832</v>
       </c>
       <c r="D19">
-        <v>2.530703083003806</v>
+        <v>4.624583484238807</v>
       </c>
       <c r="E19">
-        <v>6.243787477498659</v>
+        <v>10.5513391389374</v>
       </c>
       <c r="F19">
-        <v>44.95219108487142</v>
+        <v>42.81524402289274</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.885692333225203</v>
+        <v>7.205903236132814</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>17.07438180954554</v>
       </c>
       <c r="L19">
-        <v>7.721286217609675</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>16.00593519457313</v>
       </c>
       <c r="O19">
-        <v>33.97979475591095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.89425532713891</v>
+        <v>19.98440709292598</v>
       </c>
       <c r="C20">
-        <v>15.4111852568151</v>
+        <v>11.84484143703958</v>
       </c>
       <c r="D20">
-        <v>2.553763997532046</v>
+        <v>4.711260188923787</v>
       </c>
       <c r="E20">
-        <v>6.233824629293058</v>
+        <v>10.7105423301225</v>
       </c>
       <c r="F20">
-        <v>45.48379414000967</v>
+        <v>43.30466994747432</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.865411165658232</v>
+        <v>7.261482590560956</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>17.43484112400828</v>
       </c>
       <c r="L20">
-        <v>7.791893469735481</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>15.97099576546218</v>
       </c>
       <c r="O20">
-        <v>34.35892110874726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.80832766107145</v>
+        <v>21.31752539480135</v>
       </c>
       <c r="C21">
-        <v>16.40184934233408</v>
+        <v>12.65065992685756</v>
       </c>
       <c r="D21">
-        <v>2.6330240950261</v>
+        <v>4.993547969675721</v>
       </c>
       <c r="E21">
-        <v>6.202296470925077</v>
+        <v>11.24108398448363</v>
       </c>
       <c r="F21">
-        <v>47.30238448953113</v>
+        <v>44.96598616242357</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.798659661619219</v>
+        <v>7.452679813801022</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>18.6131119670887</v>
       </c>
       <c r="L21">
-        <v>8.031801953931298</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>15.86212859667428</v>
       </c>
       <c r="O21">
-        <v>35.66154097434466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.02454912790282</v>
+        <v>22.16309363622727</v>
       </c>
       <c r="C22">
-        <v>17.03025731882843</v>
+        <v>13.16230563423895</v>
       </c>
       <c r="D22">
-        <v>2.686405954368072</v>
+        <v>5.171503941862406</v>
       </c>
       <c r="E22">
-        <v>6.183185328282828</v>
+        <v>11.58449123199314</v>
       </c>
       <c r="F22">
-        <v>48.51637545537791</v>
+        <v>46.0646061644781</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.756050426026831</v>
+        <v>7.581044310841994</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>19.35955700158224</v>
       </c>
       <c r="L22">
-        <v>8.190619980703202</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>15.79781166084846</v>
       </c>
       <c r="O22">
-        <v>36.53545148210344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.3785080234224</v>
+        <v>21.71409452152707</v>
       </c>
       <c r="C23">
-        <v>16.69654445085754</v>
+        <v>12.89056227630009</v>
       </c>
       <c r="D23">
-        <v>2.657752765444164</v>
+        <v>5.077115023679212</v>
       </c>
       <c r="E23">
-        <v>6.193245494294722</v>
+        <v>11.40151508230894</v>
       </c>
       <c r="F23">
-        <v>47.86602338755947</v>
+        <v>45.47704981366193</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.778700013789632</v>
+        <v>7.512215853374615</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>18.96326969805743</v>
       </c>
       <c r="L23">
-        <v>8.105667250723178</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>15.83148063198132</v>
       </c>
       <c r="O23">
-        <v>36.06688159122026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.86236387270441</v>
+        <v>19.96217253548258</v>
       </c>
       <c r="C24">
-        <v>15.3946585544378</v>
+        <v>11.83140875547137</v>
       </c>
       <c r="D24">
-        <v>2.552491513749272</v>
+        <v>4.706534221109301</v>
       </c>
       <c r="E24">
-        <v>6.234364525279025</v>
+        <v>10.70181569656865</v>
       </c>
       <c r="F24">
-        <v>45.45448140417692</v>
+        <v>43.27772963487592</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.86651963016847</v>
+        <v>7.258413844482287</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>17.41517192280222</v>
       </c>
       <c r="L24">
-        <v>7.788005995058469</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>15.97288354916221</v>
       </c>
       <c r="O24">
-        <v>34.33799531682417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.18569957170937</v>
+        <v>18.15562854998492</v>
       </c>
       <c r="C25">
-        <v>13.90293537243961</v>
+        <v>10.62082306011764</v>
       </c>
       <c r="D25">
-        <v>2.444165406762697</v>
+        <v>4.277983866001699</v>
       </c>
       <c r="E25">
-        <v>6.284863117532359</v>
+        <v>9.933575735689313</v>
       </c>
       <c r="F25">
-        <v>42.95549132557115</v>
+        <v>40.95966106064959</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.965738847442937</v>
+        <v>6.998786804350483</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>15.84987595165338</v>
       </c>
       <c r="L25">
-        <v>7.453967062739597</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>16.15177359765588</v>
       </c>
       <c r="O25">
-        <v>32.56359032749468</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_37/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_37/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.77896362683131</v>
+        <v>16.91016218945221</v>
       </c>
       <c r="C2">
-        <v>9.726351861348485</v>
+        <v>9.087496150431338</v>
       </c>
       <c r="D2">
-        <v>3.93691220969227</v>
+        <v>6.000319336270256</v>
       </c>
       <c r="E2">
-        <v>9.358091969384725</v>
+        <v>12.39933772938301</v>
       </c>
       <c r="F2">
-        <v>39.30042919318905</v>
+        <v>48.35214782205405</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.819376659769376</v>
+        <v>10.51387118435646</v>
       </c>
       <c r="K2">
-        <v>14.73402994273744</v>
+        <v>16.44594121733526</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.30336988886645</v>
+        <v>23.38362989782224</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.80788356694498</v>
+        <v>16.72091115277286</v>
       </c>
       <c r="C3">
-        <v>9.111480758399152</v>
+        <v>8.955958201609997</v>
       </c>
       <c r="D3">
-        <v>3.713299797450181</v>
+        <v>5.991839123878377</v>
       </c>
       <c r="E3">
-        <v>8.963484025018445</v>
+        <v>12.36723847085993</v>
       </c>
       <c r="F3">
-        <v>38.2072193719736</v>
+        <v>48.23118647083447</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.704983783586189</v>
+        <v>10.52161106110634</v>
       </c>
       <c r="K3">
-        <v>13.9538828489234</v>
+        <v>16.32495903335073</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.4173371700553</v>
+        <v>23.42070127150854</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.19392061003244</v>
+        <v>16.60853212556576</v>
       </c>
       <c r="C4">
-        <v>8.720661963651514</v>
+        <v>8.877108239591166</v>
       </c>
       <c r="D4">
-        <v>3.587071889395665</v>
+        <v>5.987983214063489</v>
       </c>
       <c r="E4">
-        <v>8.719627149501781</v>
+        <v>12.35036435372198</v>
       </c>
       <c r="F4">
-        <v>37.55218136877036</v>
+        <v>48.16678383780981</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.638258868569151</v>
+        <v>10.52809246315978</v>
       </c>
       <c r="K4">
-        <v>13.46417401151492</v>
+        <v>16.25463664351187</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.49251717089284</v>
+        <v>23.44533657101206</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.93949516611376</v>
+        <v>16.56375058004287</v>
       </c>
       <c r="C5">
-        <v>8.558148932608054</v>
+        <v>8.845500106932564</v>
       </c>
       <c r="D5">
-        <v>3.534876715092082</v>
+        <v>5.986753500837634</v>
       </c>
       <c r="E5">
-        <v>8.619985700370693</v>
+        <v>12.34420545500079</v>
       </c>
       <c r="F5">
-        <v>37.28945702782494</v>
+        <v>48.14303233604223</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.611946377079042</v>
+        <v>10.53116836135043</v>
       </c>
       <c r="K5">
-        <v>13.26214157908201</v>
+        <v>16.2270023697481</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.52441693783664</v>
+        <v>23.45584649757815</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.89700023409503</v>
+        <v>16.55637736940034</v>
       </c>
       <c r="C6">
-        <v>8.530970711284679</v>
+        <v>8.840284457531043</v>
       </c>
       <c r="D6">
-        <v>3.526166264891514</v>
+        <v>5.986569989859892</v>
       </c>
       <c r="E6">
-        <v>8.603428153836528</v>
+        <v>12.34322622546907</v>
       </c>
       <c r="F6">
-        <v>37.24609015378525</v>
+        <v>48.13923928813477</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.607630106065282</v>
+        <v>10.53170535948528</v>
       </c>
       <c r="K6">
-        <v>13.22845221988942</v>
+        <v>16.22247622628875</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.52978893006022</v>
+        <v>23.45762009422258</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.1905061285063</v>
+        <v>16.60792401301803</v>
       </c>
       <c r="C7">
-        <v>8.718483276045424</v>
+        <v>8.876679784977831</v>
       </c>
       <c r="D7">
-        <v>3.586370931773379</v>
+        <v>5.987965244282878</v>
       </c>
       <c r="E7">
-        <v>8.718284255283013</v>
+        <v>12.35027838226748</v>
       </c>
       <c r="F7">
-        <v>37.54862094985484</v>
+        <v>48.16645340883862</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.637900459264421</v>
+        <v>10.52813218606373</v>
       </c>
       <c r="K7">
-        <v>13.46145901890287</v>
+        <v>16.25425978358778</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.49294232381125</v>
+        <v>23.44547640549077</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.44792844399088</v>
+        <v>16.84414751895503</v>
       </c>
       <c r="C8">
-        <v>9.517144811750484</v>
+        <v>9.04177014692424</v>
       </c>
       <c r="D8">
-        <v>3.853292083012697</v>
+        <v>5.997116173144815</v>
       </c>
       <c r="E8">
-        <v>9.222426281023006</v>
+        <v>12.38768446487485</v>
       </c>
       <c r="F8">
-        <v>38.92020721753344</v>
+        <v>48.30839991894342</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.779202129148818</v>
+        <v>10.51618098100041</v>
       </c>
       <c r="K8">
-        <v>14.46737081883613</v>
+        <v>16.40342095570009</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.3415572394361</v>
+        <v>23.39602316469463</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.7662661738689</v>
+        <v>17.33528982096486</v>
       </c>
       <c r="C9">
-        <v>11.03805140621212</v>
+        <v>9.378803075830765</v>
       </c>
       <c r="D9">
-        <v>4.426263611794802</v>
+        <v>6.02568649149546</v>
       </c>
       <c r="E9">
-        <v>10.19404439171907</v>
+        <v>12.4832995369509</v>
       </c>
       <c r="F9">
-        <v>41.73326154612032</v>
+        <v>48.66444337776679</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.084395419418364</v>
+        <v>10.50646632548449</v>
       </c>
       <c r="K9">
-        <v>16.34796245841981</v>
+        <v>16.72609915938941</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>16.08825472333156</v>
+        <v>23.31391977522005</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.44650147777462</v>
+        <v>17.70980688872157</v>
       </c>
       <c r="C10">
-        <v>12.12405839342004</v>
+        <v>9.631949517185545</v>
       </c>
       <c r="D10">
-        <v>4.809346535653149</v>
+        <v>6.05301268193661</v>
       </c>
       <c r="E10">
-        <v>10.8928406674906</v>
+        <v>12.56676334762357</v>
       </c>
       <c r="F10">
-        <v>43.87037036008849</v>
+        <v>48.97242593026533</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.326164156208119</v>
+        <v>10.50769215369598</v>
       </c>
       <c r="K10">
-        <v>17.84348433217219</v>
+        <v>16.97977114404474</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>15.93228188655411</v>
+        <v>23.26268080188114</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.23265670664221</v>
+        <v>17.8824270502616</v>
       </c>
       <c r="C11">
-        <v>12.59933159414468</v>
+        <v>9.747769528388208</v>
       </c>
       <c r="D11">
-        <v>4.975639722726937</v>
+        <v>6.066784283537935</v>
       </c>
       <c r="E11">
-        <v>11.20689900124643</v>
+        <v>12.60751263761445</v>
       </c>
       <c r="F11">
-        <v>44.8575936712203</v>
+        <v>49.12235707454228</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.440093931020679</v>
+        <v>10.51006300540334</v>
       </c>
       <c r="K11">
-        <v>18.53815673072041</v>
+        <v>17.09836812998663</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>15.86879519167077</v>
+        <v>23.24134640986414</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.52593238221078</v>
+        <v>17.94805639747736</v>
       </c>
       <c r="C12">
-        <v>12.7767223462943</v>
+        <v>9.791678404488028</v>
       </c>
       <c r="D12">
-        <v>5.037487877756494</v>
+        <v>6.072188636688208</v>
       </c>
       <c r="E12">
-        <v>11.32525355335426</v>
+        <v>12.62333459381571</v>
       </c>
       <c r="F12">
-        <v>45.23362903286336</v>
+        <v>49.18052026700839</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.483819179797689</v>
+        <v>10.51122102945535</v>
       </c>
       <c r="K12">
-        <v>18.79714638762338</v>
+        <v>17.14370204458336</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>15.84591798131898</v>
+        <v>23.23355188286364</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.46296437973667</v>
+        <v>17.93391127624953</v>
       </c>
       <c r="C13">
-        <v>12.73863108327886</v>
+        <v>9.782220305544008</v>
       </c>
       <c r="D13">
-        <v>5.024217336078431</v>
+        <v>6.071016348840091</v>
       </c>
       <c r="E13">
-        <v>11.29978937454697</v>
+        <v>12.61990980625811</v>
       </c>
       <c r="F13">
-        <v>45.15254431957709</v>
+        <v>49.16793250549743</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.47437596788731</v>
+        <v>10.51096006372221</v>
       </c>
       <c r="K13">
-        <v>18.74154653097555</v>
+        <v>17.13392031247565</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>15.85079167696713</v>
+        <v>23.2352179206732</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.2568724105211</v>
+        <v>17.8878215206382</v>
       </c>
       <c r="C14">
-        <v>12.61397674472206</v>
+        <v>9.75138118201475</v>
       </c>
       <c r="D14">
-        <v>4.980750380150214</v>
+        <v>6.067225128771594</v>
       </c>
       <c r="E14">
-        <v>11.21664762775876</v>
+        <v>12.6088065344133</v>
       </c>
       <c r="F14">
-        <v>44.88848593908151</v>
+        <v>49.12711454263047</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.443679456445867</v>
+        <v>10.51015306462271</v>
       </c>
       <c r="K14">
-        <v>18.5595445181573</v>
+        <v>17.10208949550869</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>15.86688918747283</v>
+        <v>23.24069944833721</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.13006374965981</v>
+        <v>17.85962248818994</v>
       </c>
       <c r="C15">
-        <v>12.5372893304011</v>
+        <v>9.73249657254285</v>
       </c>
       <c r="D15">
-        <v>4.953980044905398</v>
+        <v>6.064927448913033</v>
       </c>
       <c r="E15">
-        <v>11.16564604918585</v>
+        <v>12.60205611748121</v>
       </c>
       <c r="F15">
-        <v>44.72703038873851</v>
+        <v>49.10229225651491</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.424953341545335</v>
+        <v>10.50969262728673</v>
       </c>
       <c r="K15">
-        <v>18.44753829689457</v>
+        <v>17.08264630173422</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>15.87690381373825</v>
+        <v>23.2440940848445</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.39449670515458</v>
+        <v>17.69856575014217</v>
       </c>
       <c r="C16">
-        <v>12.09262999026825</v>
+        <v>9.624389872870303</v>
       </c>
       <c r="D16">
-        <v>4.798320344168899</v>
+        <v>6.052139365310369</v>
       </c>
       <c r="E16">
-        <v>10.87223682802019</v>
+        <v>12.56415550821243</v>
       </c>
       <c r="F16">
-        <v>43.80615715873417</v>
+        <v>48.96282319393158</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.318799176889122</v>
+        <v>10.50757365942189</v>
       </c>
       <c r="K16">
-        <v>17.7975076209052</v>
+        <v>16.97208185633697</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>15.93658858446701</v>
+        <v>23.2641148215038</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.93520494160457</v>
+        <v>17.6002949872343</v>
       </c>
       <c r="C17">
-        <v>11.81511695655676</v>
+        <v>9.558207285992657</v>
       </c>
       <c r="D17">
-        <v>4.700801460741353</v>
+        <v>6.044635313179211</v>
       </c>
       <c r="E17">
-        <v>10.69123708694738</v>
+        <v>12.54161094466183</v>
       </c>
       <c r="F17">
-        <v>43.24508937879065</v>
+        <v>48.87976305780801</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.254697266133496</v>
+        <v>10.50673783262481</v>
       </c>
       <c r="K17">
-        <v>17.39131493288684</v>
+        <v>16.90504817470851</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>15.97517620872777</v>
+        <v>23.27690289916465</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.67486901199443</v>
+        <v>17.5439877532189</v>
       </c>
       <c r="C18">
-        <v>11.65372569599141</v>
+        <v>9.520205789552222</v>
       </c>
       <c r="D18">
-        <v>4.643959134777907</v>
+        <v>6.040445603762368</v>
       </c>
       <c r="E18">
-        <v>10.58677056684122</v>
+        <v>12.52890625640407</v>
       </c>
       <c r="F18">
-        <v>42.92378870416319</v>
+        <v>48.83291583705706</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.218198005539025</v>
+        <v>10.50642779425615</v>
       </c>
       <c r="K18">
-        <v>17.15490693999816</v>
+        <v>16.86679563584602</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>15.9980675022669</v>
+        <v>23.28444408460119</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.59344076863071</v>
+        <v>17.52496199388888</v>
       </c>
       <c r="C19">
-        <v>11.59877368081832</v>
+        <v>9.507351681802517</v>
       </c>
       <c r="D19">
-        <v>4.624583484238807</v>
+        <v>6.039048854786421</v>
       </c>
       <c r="E19">
-        <v>10.5513391389374</v>
+        <v>12.52464998514594</v>
       </c>
       <c r="F19">
-        <v>42.81524402289274</v>
+        <v>48.81721409720955</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.205903236132814</v>
+        <v>10.50635215288358</v>
       </c>
       <c r="K19">
-        <v>17.07438180954554</v>
+        <v>16.8538972001176</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>16.00593519457313</v>
+        <v>23.28702930280588</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.98440709292598</v>
+        <v>17.6107342222305</v>
       </c>
       <c r="C20">
-        <v>11.84484143703958</v>
+        <v>9.565246139335416</v>
       </c>
       <c r="D20">
-        <v>4.711260188923787</v>
+        <v>6.045421072335436</v>
       </c>
       <c r="E20">
-        <v>10.7105423301225</v>
+        <v>12.54398376199496</v>
       </c>
       <c r="F20">
-        <v>43.30466994747432</v>
+        <v>48.88850921390541</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.261482590560956</v>
+        <v>10.5068091435344</v>
       </c>
       <c r="K20">
-        <v>17.43484112400828</v>
+        <v>16.91215287885784</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>15.97099576546218</v>
+        <v>23.27552235178918</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.31752539480135</v>
+        <v>17.90135258277972</v>
       </c>
       <c r="C21">
-        <v>12.65065992685756</v>
+        <v>9.760438365735153</v>
       </c>
       <c r="D21">
-        <v>4.993547969675721</v>
+        <v>6.068333591908467</v>
       </c>
       <c r="E21">
-        <v>11.24108398448363</v>
+        <v>12.61205729413118</v>
       </c>
       <c r="F21">
-        <v>44.96598616242357</v>
+        <v>49.13906632682672</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.452679813801022</v>
+        <v>10.51038304182175</v>
       </c>
       <c r="K21">
-        <v>18.6131119670887</v>
+        <v>17.11142776935702</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>15.86212859667428</v>
+        <v>23.23908167039449</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.16309363622727</v>
+        <v>18.09278644859242</v>
       </c>
       <c r="C22">
-        <v>13.16230563423895</v>
+        <v>9.888281302133564</v>
       </c>
       <c r="D22">
-        <v>5.171503941862406</v>
+        <v>6.084410137210919</v>
       </c>
       <c r="E22">
-        <v>11.58449123199314</v>
+        <v>12.65882229310945</v>
       </c>
       <c r="F22">
-        <v>46.0646061644781</v>
+        <v>49.31089398622626</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.581044310841994</v>
+        <v>10.51423530597921</v>
       </c>
       <c r="K22">
-        <v>19.35955700158224</v>
+        <v>17.24411840808662</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>15.79781166084846</v>
+        <v>23.21692315420672</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.71409452152707</v>
+        <v>17.99049779171616</v>
       </c>
       <c r="C23">
-        <v>12.89056227630009</v>
+        <v>9.820038615469757</v>
       </c>
       <c r="D23">
-        <v>5.077115023679212</v>
+        <v>6.07573016159196</v>
       </c>
       <c r="E23">
-        <v>11.40151508230894</v>
+        <v>12.63365784886306</v>
       </c>
       <c r="F23">
-        <v>45.47704981366193</v>
+        <v>49.21845661165704</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.512215853374615</v>
+        <v>10.51204071974767</v>
       </c>
       <c r="K23">
-        <v>18.96326969805743</v>
+        <v>17.17308665647814</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>15.83148063198132</v>
+        <v>23.22859776284896</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.96217253548258</v>
+        <v>17.60601404774529</v>
       </c>
       <c r="C24">
-        <v>11.83140875547137</v>
+        <v>9.562063721566991</v>
       </c>
       <c r="D24">
-        <v>4.706534221109301</v>
+        <v>6.045065442663589</v>
       </c>
       <c r="E24">
-        <v>10.70181569656865</v>
+        <v>12.54291021172872</v>
       </c>
       <c r="F24">
-        <v>43.27772963487592</v>
+        <v>48.88455225527004</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.258413844482287</v>
+        <v>10.50677637278747</v>
       </c>
       <c r="K24">
-        <v>17.41517192280222</v>
+        <v>16.9089399484372</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>15.97288354916221</v>
+        <v>23.27614590806649</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.15562854998492</v>
+        <v>17.19977572108241</v>
       </c>
       <c r="C25">
-        <v>10.62082306011764</v>
+        <v>9.286469628901608</v>
       </c>
       <c r="D25">
-        <v>4.277983866001699</v>
+        <v>6.016833572396426</v>
       </c>
       <c r="E25">
-        <v>9.933575735689313</v>
+        <v>12.45508380190046</v>
       </c>
       <c r="F25">
-        <v>40.95966106064959</v>
+        <v>48.55989729316201</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.998786804350483</v>
+        <v>10.50762510545842</v>
       </c>
       <c r="K25">
-        <v>15.84987595165338</v>
+        <v>16.63575545616393</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>16.15177359765588</v>
+        <v>23.33453704752518</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_37/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_37/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.91016218945221</v>
+        <v>16.77896362683134</v>
       </c>
       <c r="C2">
-        <v>9.087496150431338</v>
+        <v>9.726351861348471</v>
       </c>
       <c r="D2">
-        <v>6.000319336270256</v>
+        <v>3.936912209692404</v>
       </c>
       <c r="E2">
-        <v>12.39933772938301</v>
+        <v>9.358091969384711</v>
       </c>
       <c r="F2">
-        <v>48.35214782205405</v>
+        <v>39.30042919318921</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.51387118435646</v>
+        <v>6.81937665976943</v>
       </c>
       <c r="K2">
-        <v>16.44594121733526</v>
+        <v>14.73402994273746</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>23.38362989782224</v>
+        <v>16.30336988886656</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.72091115277286</v>
+        <v>15.80788356694501</v>
       </c>
       <c r="C3">
-        <v>8.955958201609997</v>
+        <v>9.111480758399134</v>
       </c>
       <c r="D3">
-        <v>5.991839123878377</v>
+        <v>3.71329979745028</v>
       </c>
       <c r="E3">
-        <v>12.36723847085993</v>
+        <v>8.963484025018511</v>
       </c>
       <c r="F3">
-        <v>48.23118647083447</v>
+        <v>38.20721937197397</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.52161106110634</v>
+        <v>6.704983783586184</v>
       </c>
       <c r="K3">
-        <v>16.32495903335073</v>
+        <v>13.95388284892344</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>23.42070127150854</v>
+        <v>16.41733717005546</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.60853212556576</v>
+        <v>15.19392061003239</v>
       </c>
       <c r="C4">
-        <v>8.877108239591166</v>
+        <v>8.720661963651525</v>
       </c>
       <c r="D4">
-        <v>5.987983214063489</v>
+        <v>3.587071889395614</v>
       </c>
       <c r="E4">
-        <v>12.35036435372198</v>
+        <v>8.719627149501713</v>
       </c>
       <c r="F4">
-        <v>48.16678383780981</v>
+        <v>37.55218136877002</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.52809246315978</v>
+        <v>6.638258868569133</v>
       </c>
       <c r="K4">
-        <v>16.25463664351187</v>
+        <v>13.46417401151486</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>23.44533657101206</v>
+        <v>16.49251717089266</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.56375058004287</v>
+        <v>14.93949516611373</v>
       </c>
       <c r="C5">
-        <v>8.845500106932564</v>
+        <v>8.55814893260801</v>
       </c>
       <c r="D5">
-        <v>5.986753500837634</v>
+        <v>3.534876715091997</v>
       </c>
       <c r="E5">
-        <v>12.34420545500079</v>
+        <v>8.619985700370627</v>
       </c>
       <c r="F5">
-        <v>48.14303233604223</v>
+        <v>37.28945702782489</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.53116836135043</v>
+        <v>6.611946377079068</v>
       </c>
       <c r="K5">
-        <v>16.2270023697481</v>
+        <v>13.26214157908198</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>23.45584649757815</v>
+        <v>16.52441693783669</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.55637736940034</v>
+        <v>14.89700023409505</v>
       </c>
       <c r="C6">
-        <v>8.840284457531043</v>
+        <v>8.530970711284718</v>
       </c>
       <c r="D6">
-        <v>5.986569989859892</v>
+        <v>3.526166264891615</v>
       </c>
       <c r="E6">
-        <v>12.34322622546907</v>
+        <v>8.603428153836532</v>
       </c>
       <c r="F6">
-        <v>48.13923928813477</v>
+        <v>37.24609015378542</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.53170535948528</v>
+        <v>6.607630106065275</v>
       </c>
       <c r="K6">
-        <v>16.22247622628875</v>
+        <v>13.22845221988947</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>23.45762009422258</v>
+        <v>16.5297889300602</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.60792401301803</v>
+        <v>15.19050612850638</v>
       </c>
       <c r="C7">
-        <v>8.876679784977831</v>
+        <v>8.718483276045347</v>
       </c>
       <c r="D7">
-        <v>5.987965244282878</v>
+        <v>3.586370931773367</v>
       </c>
       <c r="E7">
-        <v>12.35027838226748</v>
+        <v>8.718284255283033</v>
       </c>
       <c r="F7">
-        <v>48.16645340883862</v>
+        <v>37.54862094985507</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.52813218606373</v>
+        <v>6.637900459264436</v>
       </c>
       <c r="K7">
-        <v>16.25425978358778</v>
+        <v>13.46145901890296</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>23.44547640549077</v>
+        <v>16.49294232381138</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.84414751895503</v>
+        <v>16.44792844399089</v>
       </c>
       <c r="C8">
-        <v>9.04177014692424</v>
+        <v>9.51714481175048</v>
       </c>
       <c r="D8">
-        <v>5.997116173144815</v>
+        <v>3.853292083012642</v>
       </c>
       <c r="E8">
-        <v>12.38768446487485</v>
+        <v>9.222426281022955</v>
       </c>
       <c r="F8">
-        <v>48.30839991894342</v>
+        <v>38.92020721753327</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.51618098100041</v>
+        <v>6.779202129148759</v>
       </c>
       <c r="K8">
-        <v>16.40342095570009</v>
+        <v>14.46737081883612</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>23.39602316469463</v>
+        <v>16.34155723943601</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.33528982096486</v>
+        <v>18.76626617386893</v>
       </c>
       <c r="C9">
-        <v>9.378803075830765</v>
+        <v>11.03805140621209</v>
       </c>
       <c r="D9">
-        <v>6.02568649149546</v>
+        <v>4.426263611794845</v>
       </c>
       <c r="E9">
-        <v>12.4832995369509</v>
+        <v>10.19404439171906</v>
       </c>
       <c r="F9">
-        <v>48.66444337776679</v>
+        <v>41.73326154612041</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.50646632548449</v>
+        <v>7.084395419418351</v>
       </c>
       <c r="K9">
-        <v>16.72609915938941</v>
+        <v>16.34796245841983</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>23.31391977522005</v>
+        <v>16.08825472333159</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.70980688872157</v>
+        <v>20.44650147777464</v>
       </c>
       <c r="C10">
-        <v>9.631949517185545</v>
+        <v>12.12405839342002</v>
       </c>
       <c r="D10">
-        <v>6.05301268193661</v>
+        <v>4.809346535653149</v>
       </c>
       <c r="E10">
-        <v>12.56676334762357</v>
+        <v>10.89284066749062</v>
       </c>
       <c r="F10">
-        <v>48.97242593026533</v>
+        <v>43.87037036008845</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.50769215369598</v>
+        <v>7.326164156208134</v>
       </c>
       <c r="K10">
-        <v>16.97977114404474</v>
+        <v>17.84348433217219</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>23.26268080188114</v>
+        <v>15.93228188655408</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.8824270502616</v>
+        <v>21.2326567066422</v>
       </c>
       <c r="C11">
-        <v>9.747769528388208</v>
+        <v>12.59933159414468</v>
       </c>
       <c r="D11">
-        <v>6.066784283537935</v>
+        <v>4.975639722727074</v>
       </c>
       <c r="E11">
-        <v>12.60751263761445</v>
+        <v>11.20689900124643</v>
       </c>
       <c r="F11">
-        <v>49.12235707454228</v>
+        <v>44.85759367122034</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.51006300540334</v>
+        <v>7.440093931020697</v>
       </c>
       <c r="K11">
-        <v>17.09836812998663</v>
+        <v>18.53815673072038</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>23.24134640986414</v>
+        <v>15.86879519167079</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.94805639747736</v>
+        <v>21.52593238221082</v>
       </c>
       <c r="C12">
-        <v>9.791678404488028</v>
+        <v>12.77672234629428</v>
       </c>
       <c r="D12">
-        <v>6.072188636688208</v>
+        <v>5.037487877756533</v>
       </c>
       <c r="E12">
-        <v>12.62333459381571</v>
+        <v>11.32525355335426</v>
       </c>
       <c r="F12">
-        <v>49.18052026700839</v>
+        <v>45.23362903286327</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.51122102945535</v>
+        <v>7.483819179797687</v>
       </c>
       <c r="K12">
-        <v>17.14370204458336</v>
+        <v>18.79714638762341</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>23.23355188286364</v>
+        <v>15.84591798131892</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.93391127624953</v>
+        <v>21.4629643797367</v>
       </c>
       <c r="C13">
-        <v>9.782220305544008</v>
+        <v>12.7386310832789</v>
       </c>
       <c r="D13">
-        <v>6.071016348840091</v>
+        <v>5.024217336078335</v>
       </c>
       <c r="E13">
-        <v>12.61990980625811</v>
+        <v>11.29978937454699</v>
       </c>
       <c r="F13">
-        <v>49.16793250549743</v>
+        <v>45.15254431957718</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.51096006372221</v>
+        <v>7.474375967887319</v>
       </c>
       <c r="K13">
-        <v>17.13392031247565</v>
+        <v>18.7415465309756</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>23.2352179206732</v>
+        <v>15.85079167696714</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.8878215206382</v>
+        <v>21.25687241052114</v>
       </c>
       <c r="C14">
-        <v>9.75138118201475</v>
+        <v>12.61397674472188</v>
       </c>
       <c r="D14">
-        <v>6.067225128771594</v>
+        <v>4.980750380150367</v>
       </c>
       <c r="E14">
-        <v>12.6088065344133</v>
+        <v>11.21664762775874</v>
       </c>
       <c r="F14">
-        <v>49.12711454263047</v>
+        <v>44.88848593908151</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.51015306462271</v>
+        <v>7.44367945644587</v>
       </c>
       <c r="K14">
-        <v>17.10208949550869</v>
+        <v>18.55954451815724</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>23.24069944833721</v>
+        <v>15.8668891874729</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.85962248818994</v>
+        <v>21.13006374965989</v>
       </c>
       <c r="C15">
-        <v>9.73249657254285</v>
+        <v>12.53728933040131</v>
       </c>
       <c r="D15">
-        <v>6.064927448913033</v>
+        <v>4.953980044905254</v>
       </c>
       <c r="E15">
-        <v>12.60205611748121</v>
+        <v>11.16564604918588</v>
       </c>
       <c r="F15">
-        <v>49.10229225651491</v>
+        <v>44.72703038873861</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.50969262728673</v>
+        <v>7.424953341545297</v>
       </c>
       <c r="K15">
-        <v>17.08264630173422</v>
+        <v>18.44753829689469</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>23.2440940848445</v>
+        <v>15.87690381373824</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.69856575014217</v>
+        <v>20.39449670515456</v>
       </c>
       <c r="C16">
-        <v>9.624389872870303</v>
+        <v>12.09262999026823</v>
       </c>
       <c r="D16">
-        <v>6.052139365310369</v>
+        <v>4.798320344168965</v>
       </c>
       <c r="E16">
-        <v>12.56415550821243</v>
+        <v>10.87223682802018</v>
       </c>
       <c r="F16">
-        <v>48.96282319393158</v>
+        <v>43.80615715873409</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.50757365942189</v>
+        <v>7.31879917688913</v>
       </c>
       <c r="K16">
-        <v>16.97208185633697</v>
+        <v>17.79750762090521</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>23.2641148215038</v>
+        <v>15.93658858446705</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.6002949872343</v>
+        <v>19.93520494160464</v>
       </c>
       <c r="C17">
-        <v>9.558207285992657</v>
+        <v>11.81511695655683</v>
       </c>
       <c r="D17">
-        <v>6.044635313179211</v>
+        <v>4.700801460741301</v>
       </c>
       <c r="E17">
-        <v>12.54161094466183</v>
+        <v>10.69123708694735</v>
       </c>
       <c r="F17">
-        <v>48.87976305780801</v>
+        <v>43.24508937879055</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.50673783262481</v>
+        <v>7.254697266133424</v>
       </c>
       <c r="K17">
-        <v>16.90504817470851</v>
+        <v>17.39131493288691</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>23.27690289916465</v>
+        <v>15.97517620872767</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.5439877532189</v>
+        <v>19.67486901199443</v>
       </c>
       <c r="C18">
-        <v>9.520205789552222</v>
+        <v>11.65372569599141</v>
       </c>
       <c r="D18">
-        <v>6.040445603762368</v>
+        <v>4.643959134777914</v>
       </c>
       <c r="E18">
-        <v>12.52890625640407</v>
+        <v>10.58677056684124</v>
       </c>
       <c r="F18">
-        <v>48.83291583705706</v>
+        <v>42.92378870416318</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.50642779425615</v>
+        <v>7.218198005539056</v>
       </c>
       <c r="K18">
-        <v>16.86679563584602</v>
+        <v>17.15490693999816</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>23.28444408460119</v>
+        <v>15.99806750226687</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.52496199388888</v>
+        <v>19.59344076863073</v>
       </c>
       <c r="C19">
-        <v>9.507351681802517</v>
+        <v>11.59877368081831</v>
       </c>
       <c r="D19">
-        <v>6.039048854786421</v>
+        <v>4.624583484238895</v>
       </c>
       <c r="E19">
-        <v>12.52464998514594</v>
+        <v>10.55133913893743</v>
       </c>
       <c r="F19">
-        <v>48.81721409720955</v>
+        <v>42.81524402289261</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.50635215288358</v>
+        <v>7.205903236132842</v>
       </c>
       <c r="K19">
-        <v>16.8538972001176</v>
+        <v>17.07438180954557</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>23.28702930280588</v>
+        <v>16.00593519457304</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.6107342222305</v>
+        <v>19.984407092926</v>
       </c>
       <c r="C20">
-        <v>9.565246139335416</v>
+        <v>11.84484143703956</v>
       </c>
       <c r="D20">
-        <v>6.045421072335436</v>
+        <v>4.711260188923907</v>
       </c>
       <c r="E20">
-        <v>12.54398376199496</v>
+        <v>10.71054233012246</v>
       </c>
       <c r="F20">
-        <v>48.88850921390541</v>
+        <v>43.30466994747418</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.5068091435344</v>
+        <v>7.261482590560893</v>
       </c>
       <c r="K20">
-        <v>16.91215287885784</v>
+        <v>17.43484112400829</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>23.27552235178918</v>
+        <v>15.97099576546209</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.90135258277972</v>
+        <v>21.31752539480138</v>
       </c>
       <c r="C21">
-        <v>9.760438365735153</v>
+        <v>12.65065992685748</v>
       </c>
       <c r="D21">
-        <v>6.068333591908467</v>
+        <v>4.99354796967573</v>
       </c>
       <c r="E21">
-        <v>12.61205729413118</v>
+        <v>11.24108398448363</v>
       </c>
       <c r="F21">
-        <v>49.13906632682672</v>
+        <v>44.96598616242355</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.51038304182175</v>
+        <v>7.452679813801036</v>
       </c>
       <c r="K21">
-        <v>17.11142776935702</v>
+        <v>18.6131119670887</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>23.23908167039449</v>
+        <v>15.86212859667426</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.09278644859242</v>
+        <v>22.16309363622725</v>
       </c>
       <c r="C22">
-        <v>9.888281302133564</v>
+        <v>13.16230563423886</v>
       </c>
       <c r="D22">
-        <v>6.084410137210919</v>
+        <v>5.171503941862478</v>
       </c>
       <c r="E22">
-        <v>12.65882229310945</v>
+        <v>11.58449123199313</v>
       </c>
       <c r="F22">
-        <v>49.31089398622626</v>
+        <v>46.06460616447809</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.51423530597921</v>
+        <v>7.581044310842</v>
       </c>
       <c r="K22">
-        <v>17.24411840808662</v>
+        <v>19.35955700158219</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>23.21692315420672</v>
+        <v>15.79781166084855</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.99049779171616</v>
+        <v>21.71409452152712</v>
       </c>
       <c r="C23">
-        <v>9.820038615469757</v>
+        <v>12.89056227630007</v>
       </c>
       <c r="D23">
-        <v>6.07573016159196</v>
+        <v>5.077115023679354</v>
       </c>
       <c r="E23">
-        <v>12.63365784886306</v>
+        <v>11.4015150823089</v>
       </c>
       <c r="F23">
-        <v>49.21845661165704</v>
+        <v>45.47704981366193</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.51204071974767</v>
+        <v>7.512215853374586</v>
       </c>
       <c r="K23">
-        <v>17.17308665647814</v>
+        <v>18.96326969805751</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>23.22859776284896</v>
+        <v>15.83148063198129</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.60601404774529</v>
+        <v>19.96217253548254</v>
       </c>
       <c r="C24">
-        <v>9.562063721566991</v>
+        <v>11.83140875547137</v>
       </c>
       <c r="D24">
-        <v>6.045065442663589</v>
+        <v>4.706534221109457</v>
       </c>
       <c r="E24">
-        <v>12.54291021172872</v>
+        <v>10.70181569656858</v>
       </c>
       <c r="F24">
-        <v>48.88455225527004</v>
+        <v>43.27772963487591</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.50677637278747</v>
+        <v>7.258413844482309</v>
       </c>
       <c r="K24">
-        <v>16.9089399484372</v>
+        <v>17.41517192280218</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>23.27614590806649</v>
+        <v>15.97288354916227</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.19977572108241</v>
+        <v>18.15562854998492</v>
       </c>
       <c r="C25">
-        <v>9.286469628901608</v>
+        <v>10.62082306011767</v>
       </c>
       <c r="D25">
-        <v>6.016833572396426</v>
+        <v>4.27798386600182</v>
       </c>
       <c r="E25">
-        <v>12.45508380190046</v>
+        <v>9.933575735689292</v>
       </c>
       <c r="F25">
-        <v>48.55989729316201</v>
+        <v>40.95966106064962</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.50762510545842</v>
+        <v>6.99878680435051</v>
       </c>
       <c r="K25">
-        <v>16.63575545616393</v>
+        <v>15.8498759516534</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>23.33453704752518</v>
+        <v>16.15177359765591</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_37/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_37/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.77896362683134</v>
+        <v>24.04267016498452</v>
       </c>
       <c r="C2">
-        <v>9.726351861348471</v>
+        <v>14.1312737470578</v>
       </c>
       <c r="D2">
-        <v>3.936912209692404</v>
+        <v>5.302796020774677</v>
       </c>
       <c r="E2">
-        <v>9.358091969384711</v>
+        <v>7.614661225002677</v>
       </c>
       <c r="F2">
-        <v>39.30042919318921</v>
+        <v>22.30985716698867</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>2.406905616880233</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.156023166703721</v>
       </c>
       <c r="J2">
-        <v>6.81937665976943</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="K2">
-        <v>14.73402994273746</v>
+        <v>15.02830914992867</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.925857391691355</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.30336988886656</v>
+        <v>8.119918793297824</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>16.46240410357995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.80788356694501</v>
+        <v>22.47872265487531</v>
       </c>
       <c r="C3">
-        <v>9.111480758399134</v>
+        <v>13.36105577290404</v>
       </c>
       <c r="D3">
-        <v>3.71329979745028</v>
+        <v>5.165452022819853</v>
       </c>
       <c r="E3">
-        <v>8.963484025018511</v>
+        <v>7.531338121657495</v>
       </c>
       <c r="F3">
-        <v>38.20721937197397</v>
+        <v>22.08906631120574</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>2.629771790833478</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.331907950792958</v>
       </c>
       <c r="J3">
-        <v>6.704983783586184</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>13.95388284892344</v>
+        <v>15.23669477862675</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.896072411152951</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.41733717005546</v>
+        <v>7.811053971615286</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>16.42228750754613</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.19392061003239</v>
+        <v>21.46066596107474</v>
       </c>
       <c r="C4">
-        <v>8.720661963651525</v>
+        <v>12.86758699124932</v>
       </c>
       <c r="D4">
-        <v>3.587071889395614</v>
+        <v>5.080013909047004</v>
       </c>
       <c r="E4">
-        <v>8.719627149501713</v>
+        <v>7.478872492966983</v>
       </c>
       <c r="F4">
-        <v>37.55218136877002</v>
+        <v>21.96267841756871</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>2.771439319765566</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.444276823367688</v>
       </c>
       <c r="J4">
-        <v>6.638258868569133</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>13.46417401151486</v>
+        <v>15.37017324166475</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.876916492732391</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.49251717089266</v>
+        <v>7.616041969554016</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>16.40591950162842</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.93949516611373</v>
+        <v>21.03129131015672</v>
       </c>
       <c r="C5">
-        <v>8.55814893260801</v>
+        <v>12.67103641086703</v>
       </c>
       <c r="D5">
-        <v>3.534876715091997</v>
+        <v>5.045775621303651</v>
       </c>
       <c r="E5">
-        <v>8.619985700370627</v>
+        <v>7.456292930346864</v>
       </c>
       <c r="F5">
-        <v>37.28945702782489</v>
+        <v>21.90420268600554</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>2.830690956302933</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.493793569879317</v>
       </c>
       <c r="J5">
-        <v>6.611946377079068</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>13.26214157908198</v>
+        <v>15.42046997877248</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.868502620876899</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.52441693783669</v>
+        <v>7.537290636875454</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>16.39441110813037</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.89700023409505</v>
+        <v>20.95915971247561</v>
       </c>
       <c r="C6">
-        <v>8.530970711284718</v>
+        <v>12.64986625937758</v>
       </c>
       <c r="D6">
-        <v>3.526166264891615</v>
+        <v>5.041084012394416</v>
       </c>
       <c r="E6">
-        <v>8.603428153836532</v>
+        <v>7.45146052183231</v>
       </c>
       <c r="F6">
-        <v>37.24609015378542</v>
+        <v>21.88330684854841</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>2.840956262133185</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.505440204617689</v>
       </c>
       <c r="J6">
-        <v>6.607630106065275</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>13.22845221988947</v>
+        <v>15.42225070670923</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.866621651994914</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.5297889300602</v>
+        <v>7.52656946368193</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>16.3842449498074</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.19050612850638</v>
+        <v>21.45503635679388</v>
       </c>
       <c r="C7">
-        <v>8.718483276045347</v>
+        <v>12.89651383318796</v>
       </c>
       <c r="D7">
-        <v>3.586370931773367</v>
+        <v>5.082279362249453</v>
       </c>
       <c r="E7">
-        <v>8.718284255283033</v>
+        <v>7.475694223889365</v>
       </c>
       <c r="F7">
-        <v>37.54862094985507</v>
+        <v>21.93108695951912</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>2.773173193629792</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.453830686861398</v>
       </c>
       <c r="J7">
-        <v>6.637900459264436</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>13.46145901890296</v>
+        <v>15.35266768281859</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.875541622445637</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.49294232381138</v>
+        <v>7.621530017254567</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>16.38293383853708</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.44792844399089</v>
+        <v>23.51546290399716</v>
       </c>
       <c r="C8">
-        <v>9.51714481175048</v>
+        <v>13.90924894887628</v>
       </c>
       <c r="D8">
-        <v>3.853292083012642</v>
+        <v>5.259184653325278</v>
       </c>
       <c r="E8">
-        <v>9.222426281022955</v>
+        <v>7.58252238458878</v>
       </c>
       <c r="F8">
-        <v>38.92020721753327</v>
+        <v>22.19174557947079</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>2.483913800034804</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.227172340565699</v>
       </c>
       <c r="J8">
-        <v>6.779202129148759</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>14.46737081883612</v>
+        <v>15.07490486711209</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.914192266416457</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.34155723943601</v>
+        <v>8.022846037704189</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>16.41689525685639</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.76626617386893</v>
+        <v>27.09865363337678</v>
       </c>
       <c r="C9">
-        <v>11.03805140621209</v>
+        <v>15.677489138693</v>
       </c>
       <c r="D9">
-        <v>4.426263611794845</v>
+        <v>5.591235930877757</v>
       </c>
       <c r="E9">
-        <v>10.19404439171906</v>
+        <v>7.786655453897454</v>
       </c>
       <c r="F9">
-        <v>41.73326154612041</v>
+        <v>22.83034428106912</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>1.952580637274961</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.802275538791768</v>
       </c>
       <c r="J9">
-        <v>7.084395419418351</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>16.34796245841983</v>
+        <v>14.60859313313421</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5.985346881033738</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>16.08825472333159</v>
+        <v>8.753132458625785</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>16.59238528089615</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.44650147777464</v>
+        <v>29.45448097894781</v>
       </c>
       <c r="C10">
-        <v>12.12405839342002</v>
+        <v>16.93307482621843</v>
       </c>
       <c r="D10">
-        <v>4.809346535653149</v>
+        <v>5.80032071125192</v>
       </c>
       <c r="E10">
-        <v>10.89284066749062</v>
+        <v>7.876982097461374</v>
       </c>
       <c r="F10">
-        <v>43.87037036008845</v>
+        <v>23.17093637356248</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>1.615852160829703</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.521297869724611</v>
       </c>
       <c r="J10">
-        <v>7.326164156208134</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>17.84348433217219</v>
+        <v>14.21571789856075</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.025762621537113</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>15.93228188655408</v>
+        <v>9.183678965369987</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>16.65417189089397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.2326567066422</v>
+        <v>30.46317024060228</v>
       </c>
       <c r="C11">
-        <v>12.59933159414468</v>
+        <v>17.93318498688917</v>
       </c>
       <c r="D11">
-        <v>4.975639722727074</v>
+        <v>5.654733247534061</v>
       </c>
       <c r="E11">
-        <v>11.20689900124643</v>
+        <v>7.54196677328592</v>
       </c>
       <c r="F11">
-        <v>44.85759367122034</v>
+        <v>21.91168037601844</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>2.660574987360339</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.546692361898653</v>
       </c>
       <c r="J11">
-        <v>7.440093931020697</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>18.53815673072038</v>
+        <v>13.41707755808807</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.030192301901431</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>15.86879519167079</v>
+        <v>8.718993018067998</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>15.7778286413516</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.52593238221082</v>
+        <v>30.83513771793623</v>
       </c>
       <c r="C12">
-        <v>12.77672234629428</v>
+        <v>18.48997840011335</v>
       </c>
       <c r="D12">
-        <v>5.037487877756533</v>
+        <v>5.483410983925445</v>
       </c>
       <c r="E12">
-        <v>11.32525355335426</v>
+        <v>7.360183376960512</v>
       </c>
       <c r="F12">
-        <v>45.23362903286327</v>
+        <v>20.80958974103767</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>4.0775716016732</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.564529805352787</v>
       </c>
       <c r="J12">
-        <v>7.483819179797687</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>18.79714638762341</v>
+        <v>12.89071847737281</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.0959140095867</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>15.84591798131892</v>
+        <v>8.228597470834583</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>15.05289030217773</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.4629643797367</v>
+        <v>30.75286748825962</v>
       </c>
       <c r="C13">
-        <v>12.7386310832789</v>
+        <v>18.79317845801817</v>
       </c>
       <c r="D13">
-        <v>5.024217336078335</v>
+        <v>5.283514487528517</v>
       </c>
       <c r="E13">
-        <v>11.29978937454699</v>
+        <v>7.286217097775732</v>
       </c>
       <c r="F13">
-        <v>45.15254431957718</v>
+        <v>19.71061310918656</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>5.522468527957113</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.530426051939208</v>
       </c>
       <c r="J13">
-        <v>7.474375967887319</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>18.7415465309756</v>
+        <v>12.5239215229974</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.205924223809632</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>15.85079167696714</v>
+        <v>7.689389448435375</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>14.36555999148207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.25687241052114</v>
+        <v>30.48870855332671</v>
       </c>
       <c r="C14">
-        <v>12.61397674472188</v>
+        <v>18.90282553133001</v>
       </c>
       <c r="D14">
-        <v>4.980750380150367</v>
+        <v>5.130874985322003</v>
       </c>
       <c r="E14">
-        <v>11.21664762775874</v>
+        <v>7.300492072011533</v>
       </c>
       <c r="F14">
-        <v>44.88848593908151</v>
+        <v>18.93986270265114</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>6.542120901157518</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.519156796601563</v>
       </c>
       <c r="J14">
-        <v>7.44367945644587</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>18.55954451815724</v>
+        <v>12.34899715510667</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.308809040933309</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>15.8668891874729</v>
+        <v>7.289881849078358</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>13.90114137063941</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.13006374965989</v>
+        <v>30.32628153872911</v>
       </c>
       <c r="C15">
-        <v>12.53728933040131</v>
+        <v>18.8853274995073</v>
       </c>
       <c r="D15">
-        <v>4.953980044905254</v>
+        <v>5.088473387069307</v>
       </c>
       <c r="E15">
-        <v>11.16564604918588</v>
+        <v>7.31043268407591</v>
       </c>
       <c r="F15">
-        <v>44.72703038873861</v>
+        <v>18.74575232388141</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>6.779510164652819</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.547318712764064</v>
       </c>
       <c r="J15">
-        <v>7.424953341545297</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>18.44753829689469</v>
+        <v>12.33253965542417</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.334287946817488</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>15.87690381373824</v>
+        <v>7.183546208124529</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>13.79071045390713</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.39449670515456</v>
+        <v>29.38015055968655</v>
       </c>
       <c r="C16">
-        <v>12.09262999026823</v>
+        <v>18.34895859924432</v>
       </c>
       <c r="D16">
-        <v>4.798320344168965</v>
+        <v>5.036431694109666</v>
       </c>
       <c r="E16">
-        <v>10.87223682802018</v>
+        <v>7.279796207691729</v>
       </c>
       <c r="F16">
-        <v>43.80615715873409</v>
+        <v>18.79147129794739</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>6.582764804056786</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.666575285492221</v>
       </c>
       <c r="J16">
-        <v>7.31879917688913</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>17.79750762090521</v>
+        <v>12.57815898400761</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.288406311368575</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>15.93658858446705</v>
+        <v>7.092112116794041</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>13.88859269789363</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.93520494160464</v>
+        <v>28.7849407366987</v>
       </c>
       <c r="C17">
-        <v>11.81511695655683</v>
+        <v>17.86804113125395</v>
       </c>
       <c r="D17">
-        <v>4.700801460741301</v>
+        <v>5.078936283855424</v>
       </c>
       <c r="E17">
-        <v>10.69123708694735</v>
+        <v>7.237780600315184</v>
       </c>
       <c r="F17">
-        <v>43.24508937879055</v>
+        <v>19.23593802280222</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>5.860893357894261</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.732745224596029</v>
       </c>
       <c r="J17">
-        <v>7.254697266133424</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>17.39131493288691</v>
+        <v>12.85048815340742</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.193745456045638</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>15.97517620872767</v>
+        <v>7.238634987994727</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>14.20798831474374</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.67486901199443</v>
+        <v>28.43753205835279</v>
       </c>
       <c r="C18">
-        <v>11.65372569599141</v>
+        <v>17.36554938248339</v>
       </c>
       <c r="D18">
-        <v>4.643959134777914</v>
+        <v>5.206874012517041</v>
       </c>
       <c r="E18">
-        <v>10.58677056684124</v>
+        <v>7.245181225242217</v>
       </c>
       <c r="F18">
-        <v>42.92378870416318</v>
+        <v>20.09869869054457</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>4.632112269713267</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.747988309951537</v>
       </c>
       <c r="J18">
-        <v>7.218198005539056</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>17.15490693999816</v>
+        <v>13.21328934049878</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.075866664812189</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>15.99806750226687</v>
+        <v>7.608600206947471</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>14.77332163096694</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.59344076863073</v>
+        <v>28.3198187584741</v>
       </c>
       <c r="C19">
-        <v>11.59877368081831</v>
+        <v>16.94416262647569</v>
       </c>
       <c r="D19">
-        <v>4.624583484238895</v>
+        <v>5.399226570286136</v>
       </c>
       <c r="E19">
-        <v>10.55133913893743</v>
+        <v>7.382692877744476</v>
       </c>
       <c r="F19">
-        <v>42.81524402289261</v>
+        <v>21.19511579984918</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>3.188403320797518</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.738892083585299</v>
       </c>
       <c r="J19">
-        <v>7.205903236132842</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>17.07438180954557</v>
+        <v>13.63883908802227</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>5.995508824769744</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>16.00593519457304</v>
+        <v>8.145060952956195</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>15.46779212897564</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.984407092926</v>
+        <v>28.85425566382343</v>
       </c>
       <c r="C20">
-        <v>11.84484143703956</v>
+        <v>16.69294768323376</v>
       </c>
       <c r="D20">
-        <v>4.711260188923907</v>
+        <v>5.752226123100584</v>
       </c>
       <c r="E20">
-        <v>10.71054233012246</v>
+        <v>7.843314277499227</v>
       </c>
       <c r="F20">
-        <v>43.30466994747418</v>
+        <v>22.98173578424827</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>1.704109380581018</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.626157693136943</v>
       </c>
       <c r="J20">
-        <v>7.261482590560893</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>17.43484112400829</v>
+        <v>14.2570518440444</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.011863971597459</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>15.97099576546209</v>
+        <v>9.086241447479857</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>16.56204380199708</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.31752539480138</v>
+        <v>30.57583127368053</v>
       </c>
       <c r="C21">
-        <v>12.65065992685748</v>
+        <v>17.52775396513145</v>
       </c>
       <c r="D21">
-        <v>4.99354796967573</v>
+        <v>5.951660387509341</v>
       </c>
       <c r="E21">
-        <v>11.24108398448363</v>
+        <v>7.993660708300792</v>
       </c>
       <c r="F21">
-        <v>44.96598616242355</v>
+        <v>23.52611489471067</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>1.712539865919301</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.610107110753817</v>
       </c>
       <c r="J21">
-        <v>7.452679813801036</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>18.6131119670887</v>
+        <v>14.08952201557877</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.054141818898256</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>15.86212859667426</v>
+        <v>9.521806004044114</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>16.79832933982347</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.16309363622725</v>
+        <v>31.65930978571356</v>
       </c>
       <c r="C22">
-        <v>13.16230563423886</v>
+        <v>18.04835743722508</v>
       </c>
       <c r="D22">
-        <v>5.171503941862478</v>
+        <v>6.062705906198874</v>
       </c>
       <c r="E22">
-        <v>11.58449123199313</v>
+        <v>8.067350641010425</v>
       </c>
       <c r="F22">
-        <v>46.06460616447809</v>
+        <v>23.8442905660865</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>1.88658060878409</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.742230979675255</v>
       </c>
       <c r="J22">
-        <v>7.581044310842</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>19.35955700158219</v>
+        <v>13.97437217105482</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.078596180005484</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>15.79781166084855</v>
+        <v>9.753455564266483</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>16.93779590410524</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.71409452152712</v>
+        <v>31.08360975840432</v>
       </c>
       <c r="C23">
-        <v>12.89056227630007</v>
+        <v>17.74369134054067</v>
       </c>
       <c r="D23">
-        <v>5.077115023679354</v>
+        <v>6.000844812758692</v>
       </c>
       <c r="E23">
-        <v>11.4015150823089</v>
+        <v>8.031065033456303</v>
       </c>
       <c r="F23">
-        <v>45.47704981366193</v>
+        <v>23.70675420269841</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>1.794792280710264</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.666525631507948</v>
       </c>
       <c r="J23">
-        <v>7.512215853374586</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>18.96326969805751</v>
+        <v>14.05693113185875</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.066769028233197</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>15.83148063198129</v>
+        <v>9.624161873071989</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>16.88790289553662</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.96217253548254</v>
+        <v>28.82561711485675</v>
       </c>
       <c r="C24">
-        <v>11.83140875547137</v>
+        <v>16.59431351499899</v>
       </c>
       <c r="D24">
-        <v>4.706534221109457</v>
+        <v>5.76707146345826</v>
       </c>
       <c r="E24">
-        <v>10.70181569656858</v>
+        <v>7.887042225196467</v>
       </c>
       <c r="F24">
-        <v>43.27772963487591</v>
+        <v>23.15199865225282</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>1.685019132362644</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.606078265738905</v>
       </c>
       <c r="J24">
-        <v>7.258413844482309</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>17.41517192280218</v>
+        <v>14.34961112923951</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.018956841018376</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>15.97288354916227</v>
+        <v>9.130990638174135</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>16.67883833710198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.15562854998492</v>
+        <v>26.17801424864119</v>
       </c>
       <c r="C25">
-        <v>10.62082306011767</v>
+        <v>15.26661220421872</v>
       </c>
       <c r="D25">
-        <v>4.27798386600182</v>
+        <v>5.507247323231775</v>
       </c>
       <c r="E25">
-        <v>9.933575735689292</v>
+        <v>7.727706050621597</v>
       </c>
       <c r="F25">
-        <v>40.95966106064962</v>
+        <v>22.59635430765248</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>2.093872218038828</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.93042719395085</v>
       </c>
       <c r="J25">
-        <v>6.99878680435051</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>15.8498759516534</v>
+        <v>14.69657310232547</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>5.964804816879663</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>16.15177359765591</v>
+        <v>8.571449962398532</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>16.49692853056432</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_37/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_37/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.04267016498452</v>
+        <v>24.03947397846924</v>
       </c>
       <c r="C2">
-        <v>14.1312737470578</v>
+        <v>14.38402552349789</v>
       </c>
       <c r="D2">
-        <v>5.302796020774677</v>
+        <v>5.387033729279872</v>
       </c>
       <c r="E2">
-        <v>7.614661225002677</v>
+        <v>7.588385072640492</v>
       </c>
       <c r="F2">
-        <v>22.30985716698867</v>
+        <v>21.64271031118726</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2.406905616880233</v>
+        <v>2.28487631343738</v>
       </c>
       <c r="I2">
-        <v>3.156023166703721</v>
+        <v>3.004492530047947</v>
       </c>
       <c r="J2">
-        <v>4.251792669784106</v>
+        <v>5.716774528916059</v>
       </c>
       <c r="K2">
-        <v>15.02830914992867</v>
+        <v>14.42287199966636</v>
       </c>
       <c r="L2">
-        <v>5.925857391691355</v>
+        <v>11.92992981412634</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>9.3706600106098</v>
       </c>
       <c r="N2">
-        <v>8.119918793297824</v>
+        <v>5.887884009954397</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>8.293225318452635</v>
       </c>
       <c r="Q2">
-        <v>16.46240410357995</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>15.91671894322297</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.47872265487531</v>
+        <v>22.46966790698469</v>
       </c>
       <c r="C3">
-        <v>13.36105577290404</v>
+        <v>13.51455803696153</v>
       </c>
       <c r="D3">
-        <v>5.165452022819853</v>
+        <v>5.247238467821165</v>
       </c>
       <c r="E3">
-        <v>7.531338121657495</v>
+        <v>7.513604893598541</v>
       </c>
       <c r="F3">
-        <v>22.08906631120574</v>
+        <v>21.47796480646503</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.629771790833478</v>
+        <v>2.494846319877807</v>
       </c>
       <c r="I3">
-        <v>3.331907950792958</v>
+        <v>3.163570453125063</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>15.23669477862675</v>
+        <v>14.65329666909434</v>
       </c>
       <c r="L3">
-        <v>5.896072411152951</v>
+        <v>12.13082328115645</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.549899494645947</v>
       </c>
       <c r="N3">
-        <v>7.811053971615286</v>
+        <v>5.859066573944777</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7.977861722721778</v>
       </c>
       <c r="Q3">
-        <v>16.42228750754613</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>15.91638241182758</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.46066596107474</v>
+        <v>21.44698725960974</v>
       </c>
       <c r="C4">
-        <v>12.86758699124932</v>
+        <v>12.95614327422546</v>
       </c>
       <c r="D4">
-        <v>5.080013909047004</v>
+        <v>5.160425673570685</v>
       </c>
       <c r="E4">
-        <v>7.478872492966983</v>
+        <v>7.466456469445287</v>
       </c>
       <c r="F4">
-        <v>21.96267841756871</v>
+        <v>21.38474724435917</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2.771439319765566</v>
+        <v>2.628360214298364</v>
       </c>
       <c r="I4">
-        <v>3.444276823367688</v>
+        <v>3.26550068671131</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>15.37017324166475</v>
+        <v>14.79902231890656</v>
       </c>
       <c r="L4">
-        <v>5.876916492732391</v>
+        <v>12.25754068693291</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.67842066235896</v>
       </c>
       <c r="N4">
-        <v>7.616041969554016</v>
+        <v>5.84055823687846</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>7.779112702626459</v>
       </c>
       <c r="Q4">
-        <v>16.40591950162842</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>15.92321242001093</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.03129131015672</v>
+        <v>21.01544418045938</v>
       </c>
       <c r="C5">
-        <v>12.67103641086703</v>
+        <v>12.73209344311493</v>
       </c>
       <c r="D5">
-        <v>5.045775621303651</v>
+        <v>5.125628220838911</v>
       </c>
       <c r="E5">
-        <v>7.456292930346864</v>
+        <v>7.446104357850151</v>
       </c>
       <c r="F5">
-        <v>21.90420268600554</v>
+        <v>21.33981287782769</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.830690956302933</v>
+        <v>2.684223917628776</v>
       </c>
       <c r="I5">
-        <v>3.493793569879317</v>
+        <v>3.311205266740753</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>15.42046997877248</v>
+        <v>14.85438873554108</v>
       </c>
       <c r="L5">
-        <v>5.868502620876899</v>
+        <v>12.30496682471273</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.732764614177288</v>
       </c>
       <c r="N5">
-        <v>7.537290636875454</v>
+        <v>5.832457075835557</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>7.698822076289308</v>
       </c>
       <c r="Q5">
-        <v>16.39441110813037</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>15.92112843126901</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.95915971247561</v>
+        <v>20.94292237592475</v>
       </c>
       <c r="C6">
-        <v>12.64986625937758</v>
+        <v>12.70625393047819</v>
       </c>
       <c r="D6">
-        <v>5.041084012394416</v>
+        <v>5.120802402607339</v>
       </c>
       <c r="E6">
-        <v>7.45146052183231</v>
+        <v>7.441696222036977</v>
       </c>
       <c r="F6">
-        <v>21.88330684854841</v>
+        <v>21.32158552089133</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2.840956262133185</v>
+        <v>2.693917750841999</v>
       </c>
       <c r="I6">
-        <v>3.505440204617689</v>
+        <v>3.322841509235547</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>15.42225070670923</v>
+        <v>14.85746408750823</v>
       </c>
       <c r="L6">
-        <v>5.866621651994914</v>
+        <v>12.30671874950517</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.738985343422533</v>
       </c>
       <c r="N6">
-        <v>7.52656946368193</v>
+        <v>5.830672269445259</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>7.687738283502236</v>
       </c>
       <c r="Q6">
-        <v>16.3842449498074</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>15.91285803202381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.45503635679388</v>
+        <v>21.44129656026967</v>
       </c>
       <c r="C7">
-        <v>12.89651383318796</v>
+        <v>12.9845615120412</v>
       </c>
       <c r="D7">
-        <v>5.082279362249453</v>
+        <v>5.16256704662229</v>
       </c>
       <c r="E7">
-        <v>7.475694223889365</v>
+        <v>7.463456531066559</v>
       </c>
       <c r="F7">
-        <v>21.93108695951912</v>
+        <v>21.35457461107327</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2.773173193629792</v>
+        <v>2.630033852506315</v>
       </c>
       <c r="I7">
-        <v>3.453830686861398</v>
+        <v>3.276646619138672</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>15.35266768281859</v>
+        <v>14.78294822657122</v>
       </c>
       <c r="L7">
-        <v>5.875541622445637</v>
+        <v>12.24183006358988</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.670241021387273</v>
       </c>
       <c r="N7">
-        <v>7.621530017254567</v>
+        <v>5.839310899670605</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>7.784283201208832</v>
       </c>
       <c r="Q7">
-        <v>16.38293383853708</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>15.90134356955946</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.51546290399716</v>
+        <v>23.5104194588445</v>
       </c>
       <c r="C8">
-        <v>13.90924894887628</v>
+        <v>14.12832227250636</v>
       </c>
       <c r="D8">
-        <v>5.259184653325278</v>
+        <v>5.342410480855524</v>
       </c>
       <c r="E8">
-        <v>7.58252238458878</v>
+        <v>7.559382004503743</v>
       </c>
       <c r="F8">
-        <v>22.19174557947079</v>
+        <v>21.54590159634887</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2.483913800034804</v>
+        <v>2.357462772737126</v>
       </c>
       <c r="I8">
-        <v>3.227172340565699</v>
+        <v>3.071996895985246</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>15.07490486711209</v>
+        <v>14.47946081953387</v>
       </c>
       <c r="L8">
-        <v>5.914192266416457</v>
+        <v>11.97905363393319</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>9.414620680862361</v>
       </c>
       <c r="N8">
-        <v>8.022846037704189</v>
+        <v>5.876723624069901</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>8.193510287492678</v>
       </c>
       <c r="Q8">
-        <v>16.41689525685639</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>15.88660075871369</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.09865363337678</v>
+        <v>27.10304731557239</v>
       </c>
       <c r="C9">
-        <v>15.677489138693</v>
+        <v>16.12202156802571</v>
       </c>
       <c r="D9">
-        <v>5.591235930877757</v>
+        <v>5.681272005219856</v>
       </c>
       <c r="E9">
-        <v>7.786655453897454</v>
+        <v>7.742462971613692</v>
       </c>
       <c r="F9">
-        <v>22.83034428106912</v>
+        <v>22.0373874406001</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1.952580637274961</v>
+        <v>1.857112448504053</v>
       </c>
       <c r="I9">
-        <v>2.802275538791768</v>
+        <v>2.686745439424001</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>14.60859313313421</v>
+        <v>13.94858301359368</v>
       </c>
       <c r="L9">
-        <v>5.985346881033738</v>
+        <v>11.51538820604589</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>9.087235493707761</v>
       </c>
       <c r="N9">
-        <v>8.753132458625785</v>
+        <v>5.945622816986484</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>8.941318060173826</v>
       </c>
       <c r="Q9">
-        <v>16.59238528089615</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>15.9551997171407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.45448097894781</v>
+        <v>29.46882523236467</v>
       </c>
       <c r="C10">
-        <v>16.93307482621843</v>
+        <v>17.51168076629783</v>
       </c>
       <c r="D10">
-        <v>5.80032071125192</v>
+        <v>5.894212184652885</v>
       </c>
       <c r="E10">
-        <v>7.876982097461374</v>
+        <v>7.820928611124812</v>
       </c>
       <c r="F10">
-        <v>23.17093637356248</v>
+        <v>22.28290983223681</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1.615852160829703</v>
+        <v>1.606507854652368</v>
       </c>
       <c r="I10">
-        <v>2.521297869724611</v>
+        <v>2.54574686104374</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>14.21571789856075</v>
+        <v>13.51572258874836</v>
       </c>
       <c r="L10">
-        <v>6.025762621537113</v>
+        <v>11.14514485255593</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>8.894254839956794</v>
       </c>
       <c r="N10">
-        <v>9.183678965369987</v>
+        <v>5.987212939641477</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>9.382051097071107</v>
       </c>
       <c r="Q10">
-        <v>16.65417189089397</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>15.94661268270431</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.46317024060228</v>
+        <v>30.47512942157683</v>
       </c>
       <c r="C11">
-        <v>17.93318498688917</v>
+        <v>18.46354867183645</v>
       </c>
       <c r="D11">
-        <v>5.654733247534061</v>
+        <v>5.738144322671779</v>
       </c>
       <c r="E11">
-        <v>7.54196677328592</v>
+        <v>7.506933936238107</v>
       </c>
       <c r="F11">
-        <v>21.91168037601844</v>
+        <v>21.12046404677807</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2.660574987360339</v>
+        <v>2.645044897784619</v>
       </c>
       <c r="I11">
-        <v>2.546692361898653</v>
+        <v>2.634860689605196</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806009</v>
       </c>
       <c r="K11">
-        <v>13.41707755808807</v>
+        <v>12.82522398809427</v>
       </c>
       <c r="L11">
-        <v>6.030192301901431</v>
+        <v>10.66194341068212</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>8.37457965143917</v>
       </c>
       <c r="N11">
-        <v>8.718993018067998</v>
+        <v>6.012007691675617</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>8.895998385359585</v>
       </c>
       <c r="Q11">
-        <v>15.7778286413516</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>15.14853538693488</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.83513771793623</v>
+        <v>30.84295385342152</v>
       </c>
       <c r="C12">
-        <v>18.48997840011335</v>
+        <v>18.94986883544786</v>
       </c>
       <c r="D12">
-        <v>5.483410983925445</v>
+        <v>5.5573171721268</v>
       </c>
       <c r="E12">
-        <v>7.360183376960512</v>
+        <v>7.342977309369774</v>
       </c>
       <c r="F12">
-        <v>20.80958974103767</v>
+        <v>20.11857459127427</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.0775716016732</v>
+        <v>4.052023477859845</v>
       </c>
       <c r="I12">
-        <v>2.564529805352787</v>
+        <v>2.651060719448849</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>12.89071847737281</v>
+        <v>12.39144296321935</v>
       </c>
       <c r="L12">
-        <v>6.0959140095867</v>
+        <v>10.3876505887435</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>8.002019098515524</v>
       </c>
       <c r="N12">
-        <v>8.228597470834583</v>
+        <v>6.090812065084227</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>8.385583101499554</v>
       </c>
       <c r="Q12">
-        <v>15.05289030217773</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>14.50296972404997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.75286748825962</v>
+        <v>30.76041299805865</v>
       </c>
       <c r="C13">
-        <v>18.79317845801817</v>
+        <v>19.15959724618503</v>
       </c>
       <c r="D13">
-        <v>5.283514487528517</v>
+        <v>5.347992906206411</v>
       </c>
       <c r="E13">
-        <v>7.286217097775732</v>
+        <v>7.283978097862917</v>
       </c>
       <c r="F13">
-        <v>19.71061310918656</v>
+        <v>19.13059274117311</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.522468527957113</v>
+        <v>5.502192726098768</v>
       </c>
       <c r="I13">
-        <v>2.530426051939208</v>
+        <v>2.619869009320623</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>12.5239215229974</v>
+        <v>12.10910417770458</v>
       </c>
       <c r="L13">
-        <v>6.205924223809632</v>
+        <v>10.22288506786136</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>7.717403360629263</v>
       </c>
       <c r="N13">
-        <v>7.689389448435375</v>
+        <v>6.208459083214371</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>7.825952164870256</v>
       </c>
       <c r="Q13">
-        <v>14.36555999148207</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>13.90198441643899</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.48870855332671</v>
+        <v>30.49610667695131</v>
       </c>
       <c r="C14">
-        <v>18.90282553133001</v>
+        <v>19.19193252894939</v>
       </c>
       <c r="D14">
-        <v>5.130874985322003</v>
+        <v>5.188869600477601</v>
       </c>
       <c r="E14">
-        <v>7.300492072011533</v>
+        <v>7.306148652593499</v>
       </c>
       <c r="F14">
-        <v>18.93986270265114</v>
+        <v>18.44161546995157</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6.542120901157518</v>
+        <v>6.523536706449559</v>
       </c>
       <c r="I14">
-        <v>2.519156796601563</v>
+        <v>2.578510156610542</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>12.34899715510667</v>
+        <v>11.98582308852094</v>
       </c>
       <c r="L14">
-        <v>6.308809040933309</v>
+        <v>10.15286055829438</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>7.57225910592194</v>
       </c>
       <c r="N14">
-        <v>7.289881849078358</v>
+        <v>6.313482033948935</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>7.412171942585768</v>
       </c>
       <c r="Q14">
-        <v>13.90114137063941</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>13.5001659848611</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.32628153872911</v>
+        <v>30.33357631317218</v>
       </c>
       <c r="C15">
-        <v>18.8853274995073</v>
+        <v>19.15050275172438</v>
       </c>
       <c r="D15">
-        <v>5.088473387069307</v>
+        <v>5.1448961327497</v>
       </c>
       <c r="E15">
-        <v>7.31043268407591</v>
+        <v>7.317635060310268</v>
       </c>
       <c r="F15">
-        <v>18.74575232388141</v>
+        <v>18.26974248668905</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6.779510164652819</v>
+        <v>6.760858400462458</v>
       </c>
       <c r="I15">
-        <v>2.547318712764064</v>
+        <v>2.560484560460397</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702216713</v>
       </c>
       <c r="K15">
-        <v>12.33253965542417</v>
+        <v>11.98057180234009</v>
       </c>
       <c r="L15">
-        <v>6.334287946817488</v>
+        <v>10.149047828687</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>7.5554693229419</v>
       </c>
       <c r="N15">
-        <v>7.183546208124529</v>
+        <v>6.338779477507367</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>7.302299230524499</v>
       </c>
       <c r="Q15">
-        <v>13.79071045390713</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>13.40645030842529</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.38015055968655</v>
+        <v>29.38669202925193</v>
       </c>
       <c r="C16">
-        <v>18.34895859924432</v>
+        <v>18.57281193268938</v>
       </c>
       <c r="D16">
-        <v>5.036431694109666</v>
+        <v>5.093181552933309</v>
       </c>
       <c r="E16">
-        <v>7.279796207691729</v>
+        <v>7.286960205008501</v>
       </c>
       <c r="F16">
-        <v>18.79147129794739</v>
+        <v>18.33344067988917</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6.582764804056786</v>
+        <v>6.559507609545373</v>
       </c>
       <c r="I16">
-        <v>2.666575285492221</v>
+        <v>2.574987748704568</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>12.57815898400761</v>
+        <v>12.21723902887919</v>
       </c>
       <c r="L16">
-        <v>6.288406311368575</v>
+        <v>10.27912476807855</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>7.734969466680669</v>
       </c>
       <c r="N16">
-        <v>7.092112116794041</v>
+        <v>6.289186214487537</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>7.210885509449073</v>
       </c>
       <c r="Q16">
-        <v>13.88859269789363</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>13.51569406478485</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.7849407366987</v>
+        <v>28.79087361722544</v>
       </c>
       <c r="C17">
-        <v>17.86804113125395</v>
+        <v>18.10259309326104</v>
       </c>
       <c r="D17">
-        <v>5.078936283855424</v>
+        <v>5.139305727602922</v>
       </c>
       <c r="E17">
-        <v>7.237780600315184</v>
+        <v>7.241722978969685</v>
       </c>
       <c r="F17">
-        <v>19.23593802280222</v>
+        <v>18.74914910849689</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5.860893357894261</v>
+        <v>5.832024748773056</v>
       </c>
       <c r="I17">
-        <v>2.732745224596029</v>
+        <v>2.635272195992788</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326999</v>
       </c>
       <c r="K17">
-        <v>12.85048815340742</v>
+        <v>12.45912104220791</v>
       </c>
       <c r="L17">
-        <v>6.193745456045638</v>
+        <v>10.42643333695234</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>7.933835405089875</v>
       </c>
       <c r="N17">
-        <v>7.238634987994727</v>
+        <v>6.191210822684012</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>7.364764020196864</v>
       </c>
       <c r="Q17">
-        <v>14.20798831474374</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>13.81160472107047</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.43753205835279</v>
+        <v>28.44317600646198</v>
       </c>
       <c r="C18">
-        <v>17.36554938248339</v>
+        <v>17.65713444051686</v>
       </c>
       <c r="D18">
-        <v>5.206874012517041</v>
+        <v>5.274289408789753</v>
       </c>
       <c r="E18">
-        <v>7.245181225242217</v>
+        <v>7.240587216449789</v>
       </c>
       <c r="F18">
-        <v>20.09869869054457</v>
+        <v>19.53788776530596</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.632112269713267</v>
+        <v>4.594387512958644</v>
       </c>
       <c r="I18">
-        <v>2.747988309951537</v>
+        <v>2.646418628309925</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>13.21328934049878</v>
+        <v>12.76386466393135</v>
       </c>
       <c r="L18">
-        <v>6.075866664812189</v>
+        <v>10.63256314821761</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>8.185437817801274</v>
       </c>
       <c r="N18">
-        <v>7.608600206947471</v>
+        <v>6.068077699395031</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>7.749619138639893</v>
       </c>
       <c r="Q18">
-        <v>14.77332163096694</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>14.31924174289721</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.3198187584741</v>
+        <v>28.32553326658155</v>
       </c>
       <c r="C19">
-        <v>16.94416262647569</v>
+        <v>17.32239024807509</v>
       </c>
       <c r="D19">
-        <v>5.399226570286136</v>
+        <v>5.476004000577899</v>
       </c>
       <c r="E19">
-        <v>7.382692877744476</v>
+        <v>7.362865608848397</v>
       </c>
       <c r="F19">
-        <v>21.19511579984918</v>
+        <v>20.52909218466763</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.188403320797518</v>
+        <v>3.135405671193666</v>
       </c>
       <c r="I19">
-        <v>2.738892083585299</v>
+        <v>2.639566243044848</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033017</v>
       </c>
       <c r="K19">
-        <v>13.63883908802227</v>
+        <v>13.10805608309027</v>
       </c>
       <c r="L19">
-        <v>5.995508824769744</v>
+        <v>10.87787831398503</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>8.469136236588657</v>
       </c>
       <c r="N19">
-        <v>8.145060952956195</v>
+        <v>5.978315961730734</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>8.306032073873341</v>
       </c>
       <c r="Q19">
-        <v>15.46779212897564</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>14.93214665776056</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.85425566382343</v>
+        <v>28.86301742071178</v>
       </c>
       <c r="C20">
-        <v>16.69294768323376</v>
+        <v>17.2358726242896</v>
       </c>
       <c r="D20">
-        <v>5.752226123100584</v>
+        <v>5.844751100318252</v>
       </c>
       <c r="E20">
-        <v>7.843314277499227</v>
+        <v>7.790967626956315</v>
       </c>
       <c r="F20">
-        <v>22.98173578424827</v>
+        <v>22.12377501557497</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1.704109380581018</v>
+        <v>1.624792263575823</v>
       </c>
       <c r="I20">
-        <v>2.626157693136943</v>
+        <v>2.538801458570152</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>14.2570518440444</v>
+        <v>13.57502602420903</v>
       </c>
       <c r="L20">
-        <v>6.011863971597459</v>
+        <v>11.20372067638681</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>8.893709042974555</v>
       </c>
       <c r="N20">
-        <v>9.086241447479857</v>
+        <v>5.973566823335765</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>9.281121320876323</v>
       </c>
       <c r="Q20">
-        <v>16.56204380199708</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>15.87742328149579</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.57583127368053</v>
+        <v>30.59965566881079</v>
       </c>
       <c r="C21">
-        <v>17.52775396513145</v>
+        <v>18.18613851974468</v>
       </c>
       <c r="D21">
-        <v>5.951660387509341</v>
+        <v>6.049432849526644</v>
       </c>
       <c r="E21">
-        <v>7.993660708300792</v>
+        <v>7.927486076745592</v>
       </c>
       <c r="F21">
-        <v>23.52611489471067</v>
+        <v>22.56874665096164</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>1.712539865919301</v>
+        <v>1.773938196772463</v>
       </c>
       <c r="I21">
-        <v>2.610107110753817</v>
+        <v>2.693537219111255</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015649</v>
       </c>
       <c r="K21">
-        <v>14.08952201557877</v>
+        <v>13.35048335889159</v>
       </c>
       <c r="L21">
-        <v>6.054141818898256</v>
+        <v>10.99700605496913</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>8.863327933260759</v>
       </c>
       <c r="N21">
-        <v>9.521806004044114</v>
+        <v>6.012941796533736</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>9.729265109278645</v>
       </c>
       <c r="Q21">
-        <v>16.79832933982347</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>16.03799410991236</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.65930978571356</v>
+        <v>31.68337156154258</v>
       </c>
       <c r="C22">
-        <v>18.04835743722508</v>
+        <v>18.77308293391275</v>
       </c>
       <c r="D22">
-        <v>6.062705906198874</v>
+        <v>6.163294114107519</v>
       </c>
       <c r="E22">
-        <v>8.067350641010425</v>
+        <v>7.993572232371905</v>
       </c>
       <c r="F22">
-        <v>23.8442905660865</v>
+        <v>22.8282591090627</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>1.88658060878409</v>
+        <v>1.937556439484211</v>
       </c>
       <c r="I22">
-        <v>2.742230979675255</v>
+        <v>2.811591490953339</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130157</v>
       </c>
       <c r="K22">
-        <v>13.97437217105482</v>
+        <v>13.20054916611</v>
       </c>
       <c r="L22">
-        <v>6.078596180005484</v>
+        <v>10.85680004186579</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>8.860289861913168</v>
       </c>
       <c r="N22">
-        <v>9.753455564266483</v>
+        <v>6.03656008161711</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>9.967818748061392</v>
       </c>
       <c r="Q22">
-        <v>16.93779590410524</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>16.13226556697165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.08360975840432</v>
+        <v>31.10993936384354</v>
       </c>
       <c r="C23">
-        <v>17.74369134054067</v>
+        <v>18.43380097647237</v>
       </c>
       <c r="D23">
-        <v>6.000844812758692</v>
+        <v>6.100032644985049</v>
       </c>
       <c r="E23">
-        <v>8.031065033456303</v>
+        <v>7.961138443458155</v>
       </c>
       <c r="F23">
-        <v>23.70675420269841</v>
+        <v>22.7204656038234</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1.794792280710264</v>
+        <v>1.851292052794904</v>
       </c>
       <c r="I23">
-        <v>2.666525631507948</v>
+        <v>2.742066294152823</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839356</v>
       </c>
       <c r="K23">
-        <v>14.05693113185875</v>
+        <v>13.29928838189817</v>
       </c>
       <c r="L23">
-        <v>6.066769028233197</v>
+        <v>10.94355643351626</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>8.877238165763412</v>
       </c>
       <c r="N23">
-        <v>9.624161873071989</v>
+        <v>6.024971057752975</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>9.835089863411349</v>
       </c>
       <c r="Q23">
-        <v>16.88790289553662</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>16.10518369727117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.82561711485675</v>
+        <v>28.83557946052975</v>
       </c>
       <c r="C24">
-        <v>16.59431351499899</v>
+        <v>17.14554194754431</v>
       </c>
       <c r="D24">
-        <v>5.76707146345826</v>
+        <v>5.860792767369272</v>
       </c>
       <c r="E24">
-        <v>7.887042225196467</v>
+        <v>7.832190951296893</v>
       </c>
       <c r="F24">
-        <v>23.15199865225282</v>
+        <v>22.28044863818073</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1.685019132362644</v>
+        <v>1.605386520328527</v>
       </c>
       <c r="I24">
-        <v>2.606078265738905</v>
+        <v>2.514785926464103</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>14.34961112923951</v>
+        <v>13.6533968968291</v>
       </c>
       <c r="L24">
-        <v>6.018956841018376</v>
+        <v>11.25956694131303</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>8.957605690285449</v>
       </c>
       <c r="N24">
-        <v>9.130990638174135</v>
+        <v>5.978481371208328</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>9.328418043815526</v>
       </c>
       <c r="Q24">
-        <v>16.67883833710198</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>15.98329880441291</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.17801424864119</v>
+        <v>26.18058907669521</v>
       </c>
       <c r="C25">
-        <v>15.26661220421872</v>
+        <v>15.65301734431562</v>
       </c>
       <c r="D25">
-        <v>5.507247323231775</v>
+        <v>5.595196315767808</v>
       </c>
       <c r="E25">
-        <v>7.727706050621597</v>
+        <v>7.689431053178191</v>
       </c>
       <c r="F25">
-        <v>22.59635430765248</v>
+        <v>21.84642434747073</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2.093872218038828</v>
+        <v>1.990161937191948</v>
       </c>
       <c r="I25">
-        <v>2.93042719395085</v>
+        <v>2.807513480896178</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>14.69657310232547</v>
+        <v>14.0587317744223</v>
       </c>
       <c r="L25">
-        <v>5.964804816879663</v>
+        <v>11.61499871459026</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>9.135820918887548</v>
       </c>
       <c r="N25">
-        <v>8.571449962398532</v>
+        <v>5.92592240739812</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>8.754359466136748</v>
       </c>
       <c r="Q25">
-        <v>16.49692853056432</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>15.89167769224276</v>
       </c>
     </row>
   </sheetData>
